--- a/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL_P1.xlsx
+++ b/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL_P1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="225" windowWidth="14700" windowHeight="5475" activeTab="3"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="149">
   <si>
     <t>Schema</t>
   </si>
@@ -862,9 +862,6 @@
     <t>COD_INSTITUICAO</t>
   </si>
   <si>
-    <t>IND_CR_APOIO</t>
-  </si>
-  <si>
     <t>IND_FIXO_VARIAVEL</t>
   </si>
   <si>
@@ -964,9 +961,6 @@
     <t>CAMPUS</t>
   </si>
   <si>
-    <t>QTD_HORAS_TRABALHADAS (Valor do campo é nulo)</t>
-  </si>
-  <si>
     <t>IF NVL(R_AP.VALOR_FIXO, 0) &gt; 0
           THEN
             --
@@ -1072,8 +1066,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1880,6 +1874,111 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1889,101 +1988,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1994,12 +2057,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2020,69 +2077,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2106,7 +2100,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2136,7 +2130,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2203,7 +2197,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2251,7 +2245,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2274,14 +2268,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2324,7 +2318,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2347,14 +2341,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2368,6 +2362,52 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15364" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15364"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2457,6 +2497,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2491,6 +2532,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2666,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2674,7 +2716,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2683,36 +2725,36 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="148"/>
-    </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="108"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2723,143 +2765,135 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
-      <c r="B9" s="102" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108" t="s">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="113"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="D12" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="98"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="95"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="95"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2870,6 +2904,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2879,7 +2921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2887,7 +2929,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="16" customWidth="1"/>
@@ -2896,7 +2938,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2905,16 +2947,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="42" t="str">
         <f>Identificação!D3</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -2925,142 +2967,142 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
-      <c r="B6" s="115" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="152" t="s">
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="152" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="152" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="152" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="152" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="152" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="152" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="152" t="s">
-        <v>115</v>
-      </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1">
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3071,20 +3113,20 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="116" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1">
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="47" t="s">
         <v>62</v>
       </c>
@@ -3094,42 +3136,42 @@
       <c r="D18" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="124" t="s">
+      <c r="E18" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="126"/>
-      <c r="G18" s="124" t="s">
+      <c r="F18" s="142"/>
+      <c r="G18" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="126"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="142"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-    </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1">
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+    </row>
+    <row r="21" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3140,14 +3182,14 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B22" s="116" t="s">
+    <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="46" t="s">
         <v>63</v>
       </c>
@@ -3158,21 +3200,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="25.5">
-      <c r="B24" s="151" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="150" t="s">
-        <v>144</v>
+    <row r="24" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>142</v>
       </c>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3183,20 +3225,20 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B27" s="115" t="s">
+    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-    </row>
-    <row r="28" spans="2:10" ht="23.25">
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
         <v>68</v>
       </c>
@@ -3206,57 +3248,59 @@
       <c r="D28" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119" t="s">
+      <c r="F28" s="137"/>
+      <c r="G28" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
@@ -3272,13 +3316,11 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D13:J13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3289,39 +3331,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="15364" r:id="rId2"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="15364" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="15364" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF83"/>
+  <dimension ref="B1:AF82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="Q29" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3354,52 +3421,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D1" s="84"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
       <c r="U1" s="55"/>
     </row>
-    <row r="2" spans="2:29" ht="25.5" customHeight="1">
-      <c r="B2" s="133" t="s">
+    <row r="2" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="135" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="131" t="s">
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="143"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="150"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3483,18 +3550,18 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>76</v>
@@ -3505,7 +3572,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K4" s="68">
         <v>10</v>
@@ -3513,27 +3580,27 @@
       <c r="L4" s="68"/>
       <c r="M4" s="68"/>
       <c r="N4" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O4" s="64"/>
       <c r="P4" s="65"/>
       <c r="Q4" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S4" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T4" s="68" t="s">
         <v>76</v>
       </c>
       <c r="U4" s="67"/>
-      <c r="V4" s="144"/>
+      <c r="V4" s="93"/>
       <c r="W4" s="67"/>
       <c r="X4" s="67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y4" s="68">
         <v>10</v>
@@ -3543,18 +3610,18 @@
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="24">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B5" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>77</v>
@@ -3565,7 +3632,7 @@
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
       <c r="J5" s="67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" s="68">
         <v>10</v>
@@ -3573,27 +3640,27 @@
       <c r="L5" s="68"/>
       <c r="M5" s="68"/>
       <c r="N5" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O5" s="64"/>
       <c r="P5" s="65"/>
       <c r="Q5" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R5" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S5" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T5" s="68" t="s">
         <v>77</v>
       </c>
       <c r="U5" s="67"/>
-      <c r="V5" s="144"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="67"/>
       <c r="X5" s="67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y5" s="68">
         <v>10</v>
@@ -3603,18 +3670,18 @@
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="68" t="s">
         <v>78</v>
@@ -3625,7 +3692,7 @@
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K6" s="68">
         <v>2</v>
@@ -3633,27 +3700,27 @@
       <c r="L6" s="68"/>
       <c r="M6" s="68"/>
       <c r="N6" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O6" s="64"/>
       <c r="P6" s="65"/>
       <c r="Q6" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R6" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S6" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T6" s="68" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="67"/>
-      <c r="V6" s="145"/>
+      <c r="V6" s="94"/>
       <c r="W6" s="67"/>
       <c r="X6" s="67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y6" s="68">
         <v>2</v>
@@ -3663,18 +3730,18 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="11.25" customHeight="1">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>79</v>
@@ -3685,33 +3752,33 @@
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
       <c r="J7" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K7" s="68"/>
       <c r="L7" s="68"/>
       <c r="M7" s="68"/>
       <c r="N7" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O7" s="64"/>
       <c r="P7" s="65"/>
       <c r="Q7" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S7" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T7" s="68" t="s">
         <v>79</v>
       </c>
       <c r="U7" s="67"/>
-      <c r="V7" s="146"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="67"/>
       <c r="X7" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y7" s="68"/>
       <c r="Z7" s="68"/>
@@ -3719,18 +3786,18 @@
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="68" t="s">
         <v>80</v>
@@ -3741,33 +3808,33 @@
       <c r="H8" s="68"/>
       <c r="I8" s="68"/>
       <c r="J8" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K8" s="68"/>
       <c r="L8" s="68"/>
       <c r="M8" s="68"/>
       <c r="N8" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O8" s="64"/>
       <c r="P8" s="65"/>
       <c r="Q8" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S8" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T8" s="68" t="s">
         <v>80</v>
       </c>
       <c r="U8" s="67"/>
-      <c r="V8" s="144"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y8" s="68"/>
       <c r="Z8" s="68"/>
@@ -3775,18 +3842,18 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="68" t="s">
         <v>81</v>
@@ -3797,7 +3864,7 @@
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K9" s="68">
         <v>4</v>
@@ -3805,27 +3872,27 @@
       <c r="L9" s="70"/>
       <c r="M9" s="68"/>
       <c r="N9" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O9" s="64"/>
       <c r="P9" s="65"/>
       <c r="Q9" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S9" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T9" s="68" t="s">
         <v>81</v>
       </c>
       <c r="U9" s="67"/>
-      <c r="V9" s="144"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="67"/>
       <c r="X9" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y9" s="68">
         <v>4</v>
@@ -3835,18 +3902,18 @@
       <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="24">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="68" t="s">
         <v>82</v>
@@ -3857,7 +3924,7 @@
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" s="68">
         <v>1</v>
@@ -3865,27 +3932,27 @@
       <c r="L10" s="70"/>
       <c r="M10" s="68"/>
       <c r="N10" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R10" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S10" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T10" s="68" t="s">
         <v>82</v>
       </c>
       <c r="U10" s="67"/>
-      <c r="V10" s="144"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="67"/>
       <c r="X10" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y10" s="68">
         <v>1</v>
@@ -3895,18 +3962,18 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B11" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="68" t="s">
         <v>83</v>
@@ -3917,7 +3984,7 @@
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11" s="68">
         <v>4</v>
@@ -3925,27 +3992,27 @@
       <c r="L11" s="70"/>
       <c r="M11" s="68"/>
       <c r="N11" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O11" s="64"/>
       <c r="P11" s="65"/>
       <c r="Q11" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S11" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T11" s="68" t="s">
         <v>83</v>
       </c>
       <c r="U11" s="67"/>
-      <c r="V11" s="144"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="67"/>
       <c r="X11" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y11" s="68">
         <v>4</v>
@@ -3955,18 +4022,18 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>84</v>
@@ -3977,7 +4044,7 @@
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K12" s="68">
         <v>8</v>
@@ -3985,27 +4052,27 @@
       <c r="L12" s="70"/>
       <c r="M12" s="68"/>
       <c r="N12" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O12" s="64"/>
       <c r="P12" s="65"/>
       <c r="Q12" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S12" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T12" s="68" t="s">
         <v>84</v>
       </c>
       <c r="U12" s="67"/>
-      <c r="V12" s="145"/>
+      <c r="V12" s="94"/>
       <c r="W12" s="67"/>
       <c r="X12" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y12" s="68">
         <v>8</v>
@@ -4015,18 +4082,18 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>85</v>
@@ -4037,7 +4104,7 @@
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
       <c r="J13" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K13" s="70">
         <v>12</v>
@@ -4047,27 +4114,27 @@
       </c>
       <c r="M13" s="68"/>
       <c r="N13" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O13" s="64"/>
       <c r="P13" s="65"/>
       <c r="Q13" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R13" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S13" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T13" s="68" t="s">
         <v>85</v>
       </c>
       <c r="U13" s="67"/>
-      <c r="V13" s="146"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="67"/>
       <c r="X13" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y13" s="70">
         <v>12</v>
@@ -4079,18 +4146,18 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="67" t="s">
         <v>86</v>
@@ -4101,7 +4168,7 @@
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
       <c r="J14" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K14" s="68">
         <v>6</v>
@@ -4111,27 +4178,27 @@
       </c>
       <c r="M14" s="68"/>
       <c r="N14" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O14" s="64"/>
       <c r="P14" s="65"/>
       <c r="Q14" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R14" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S14" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T14" s="68" t="s">
         <v>86</v>
       </c>
       <c r="U14" s="67"/>
-      <c r="V14" s="146"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="67"/>
       <c r="X14" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y14" s="68">
         <v>6</v>
@@ -4143,18 +4210,18 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>87</v>
@@ -4165,7 +4232,7 @@
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
       <c r="J15" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K15" s="68">
         <v>6</v>
@@ -4175,27 +4242,27 @@
       </c>
       <c r="M15" s="68"/>
       <c r="N15" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O15" s="64"/>
       <c r="P15" s="65"/>
       <c r="Q15" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R15" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S15" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T15" s="68" t="s">
         <v>87</v>
       </c>
       <c r="U15" s="67"/>
-      <c r="V15" s="146"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="67"/>
       <c r="X15" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y15" s="68">
         <v>6</v>
@@ -4207,18 +4274,18 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="68" t="s">
         <v>88</v>
@@ -4229,35 +4296,35 @@
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" s="68">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L16" s="68"/>
       <c r="M16" s="68"/>
       <c r="N16" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O16" s="64"/>
       <c r="P16" s="65"/>
       <c r="Q16" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R16" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S16" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T16" s="68" t="s">
         <v>88</v>
       </c>
       <c r="U16" s="68"/>
-      <c r="V16" s="147"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="68"/>
       <c r="X16" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y16" s="68">
         <v>1</v>
@@ -4267,18 +4334,18 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="68" t="s">
         <v>89</v>
@@ -4289,7 +4356,7 @@
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K17" s="3">
         <v>60</v>
@@ -4297,27 +4364,27 @@
       <c r="L17" s="68"/>
       <c r="M17" s="68"/>
       <c r="N17" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O17" s="64"/>
       <c r="P17" s="65"/>
       <c r="Q17" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R17" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S17" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T17" s="68" t="s">
         <v>89</v>
       </c>
       <c r="U17" s="68"/>
-      <c r="V17" s="147"/>
+      <c r="V17" s="96"/>
       <c r="W17" s="68"/>
       <c r="X17" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y17" s="3">
         <v>60</v>
@@ -4327,18 +4394,18 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>90</v>
@@ -4349,35 +4416,35 @@
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
       <c r="J18" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K18" s="68">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L18" s="68"/>
       <c r="M18" s="68"/>
       <c r="N18" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O18" s="64"/>
       <c r="P18" s="65"/>
       <c r="Q18" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R18" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S18" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T18" s="68" t="s">
         <v>90</v>
       </c>
       <c r="U18" s="68"/>
-      <c r="V18" s="147"/>
+      <c r="V18" s="96"/>
       <c r="W18" s="68"/>
       <c r="X18" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y18" s="68">
         <v>11</v>
@@ -4387,18 +4454,18 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1">
+    <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>91</v>
@@ -4409,7 +4476,7 @@
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
       <c r="J19" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K19" s="68">
         <v>8</v>
@@ -4419,27 +4486,27 @@
       </c>
       <c r="M19" s="68"/>
       <c r="N19" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O19" s="64"/>
       <c r="P19" s="65"/>
       <c r="Q19" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R19" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S19" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T19" s="68" t="s">
         <v>91</v>
       </c>
       <c r="U19" s="68"/>
-      <c r="V19" s="147"/>
+      <c r="V19" s="96"/>
       <c r="W19" s="68"/>
       <c r="X19" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y19" s="68">
         <v>8</v>
@@ -4451,18 +4518,18 @@
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
     </row>
-    <row r="20" spans="2:29" ht="24">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="68" t="s">
         <v>92</v>
@@ -4473,7 +4540,7 @@
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K20" s="68">
         <v>5</v>
@@ -4481,27 +4548,27 @@
       <c r="L20" s="68"/>
       <c r="M20" s="68"/>
       <c r="N20" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O20" s="64"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R20" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S20" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T20" s="68" t="s">
         <v>92</v>
       </c>
       <c r="U20" s="68"/>
-      <c r="V20" s="147"/>
+      <c r="V20" s="96"/>
       <c r="W20" s="68"/>
       <c r="X20" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y20" s="68">
         <v>5</v>
@@ -4511,18 +4578,18 @@
       <c r="AB20" s="68"/>
       <c r="AC20" s="68"/>
     </row>
-    <row r="21" spans="2:29" ht="24">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>93</v>
@@ -4533,7 +4600,7 @@
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
       <c r="J21" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K21" s="68">
         <v>10</v>
@@ -4541,27 +4608,27 @@
       <c r="L21" s="68"/>
       <c r="M21" s="68"/>
       <c r="N21" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O21" s="64"/>
       <c r="P21" s="65"/>
       <c r="Q21" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S21" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T21" s="68" t="s">
         <v>93</v>
       </c>
       <c r="U21" s="68"/>
-      <c r="V21" s="147"/>
+      <c r="V21" s="96"/>
       <c r="W21" s="68"/>
       <c r="X21" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y21" s="68">
         <v>10</v>
@@ -4571,18 +4638,18 @@
       <c r="AB21" s="68"/>
       <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="2:29" ht="24">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="68" t="s">
         <v>94</v>
@@ -4593,7 +4660,7 @@
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
       <c r="J22" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K22" s="68">
         <v>2</v>
@@ -4601,27 +4668,27 @@
       <c r="L22" s="68"/>
       <c r="M22" s="68"/>
       <c r="N22" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O22" s="77"/>
       <c r="P22" s="74"/>
       <c r="Q22" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R22" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S22" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T22" s="68" t="s">
         <v>94</v>
       </c>
       <c r="U22" s="68"/>
-      <c r="V22" s="147"/>
+      <c r="V22" s="96"/>
       <c r="W22" s="68"/>
       <c r="X22" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y22" s="68">
         <v>2</v>
@@ -4631,18 +4698,18 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="2:29" ht="24">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" s="68" t="s">
         <v>95</v>
@@ -4653,7 +4720,7 @@
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
       <c r="J23" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K23" s="68">
         <v>15</v>
@@ -4661,27 +4728,27 @@
       <c r="L23" s="68"/>
       <c r="M23" s="68"/>
       <c r="N23" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O23" s="64"/>
       <c r="P23" s="65"/>
       <c r="Q23" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R23" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S23" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T23" s="68" t="s">
         <v>95</v>
       </c>
       <c r="U23" s="68"/>
-      <c r="V23" s="147"/>
+      <c r="V23" s="96"/>
       <c r="W23" s="68"/>
       <c r="X23" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y23" s="68">
         <v>15</v>
@@ -4691,18 +4758,18 @@
       <c r="AB23" s="68"/>
       <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="2:29" ht="24">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>96</v>
@@ -4713,7 +4780,7 @@
       <c r="H24" s="68"/>
       <c r="I24" s="68"/>
       <c r="J24" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K24" s="68">
         <v>2</v>
@@ -4721,27 +4788,27 @@
       <c r="L24" s="68"/>
       <c r="M24" s="68"/>
       <c r="N24" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O24" s="64"/>
       <c r="P24" s="65"/>
       <c r="Q24" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R24" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S24" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T24" s="68" t="s">
         <v>96</v>
       </c>
       <c r="U24" s="68"/>
-      <c r="V24" s="147"/>
+      <c r="V24" s="96"/>
       <c r="W24" s="68"/>
       <c r="X24" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y24" s="68">
         <v>2</v>
@@ -4751,18 +4818,18 @@
       <c r="AB24" s="68"/>
       <c r="AC24" s="68"/>
     </row>
-    <row r="25" spans="2:29" ht="24">
+    <row r="25" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B25" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>97</v>
@@ -4773,7 +4840,7 @@
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
       <c r="J25" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K25" s="68">
         <v>5</v>
@@ -4781,27 +4848,27 @@
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
       <c r="N25" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O25" s="64"/>
       <c r="P25" s="65"/>
       <c r="Q25" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R25" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R25" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S25" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T25" s="68" t="s">
         <v>97</v>
       </c>
       <c r="U25" s="68"/>
-      <c r="V25" s="147"/>
+      <c r="V25" s="96"/>
       <c r="W25" s="68"/>
       <c r="X25" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y25" s="68">
         <v>5</v>
@@ -4811,18 +4878,18 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29" ht="12" customHeight="1">
+    <row r="26" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>98</v>
@@ -4833,7 +4900,7 @@
       <c r="H26" s="68"/>
       <c r="I26" s="68"/>
       <c r="J26" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K26" s="68">
         <v>11</v>
@@ -4841,27 +4908,27 @@
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
       <c r="N26" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O26" s="75"/>
       <c r="P26" s="76"/>
       <c r="Q26" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R26" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R26" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S26" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T26" s="68" t="s">
         <v>98</v>
       </c>
       <c r="U26" s="68"/>
-      <c r="V26" s="147"/>
+      <c r="V26" s="96"/>
       <c r="W26" s="68"/>
       <c r="X26" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y26" s="68">
         <v>11</v>
@@ -4871,18 +4938,18 @@
       <c r="AB26" s="68"/>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="68" t="s">
         <v>99</v>
@@ -4893,7 +4960,7 @@
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
       <c r="J27" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K27" s="68">
         <v>3</v>
@@ -4901,27 +4968,27 @@
       <c r="L27" s="68"/>
       <c r="M27" s="68"/>
       <c r="N27" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O27" s="64"/>
       <c r="P27" s="65"/>
       <c r="Q27" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R27" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S27" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T27" s="68" t="s">
         <v>99</v>
       </c>
       <c r="U27" s="68"/>
-      <c r="V27" s="147"/>
+      <c r="V27" s="96"/>
       <c r="W27" s="68"/>
       <c r="X27" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y27" s="68">
         <v>3</v>
@@ -4931,18 +4998,18 @@
       <c r="AB27" s="68"/>
       <c r="AC27" s="68"/>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>100</v>
@@ -4953,7 +5020,7 @@
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K28" s="68">
         <v>5</v>
@@ -4961,27 +5028,27 @@
       <c r="L28" s="68"/>
       <c r="M28" s="68"/>
       <c r="N28" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O28" s="64"/>
       <c r="P28" s="65"/>
       <c r="Q28" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R28" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S28" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T28" s="68" t="s">
         <v>100</v>
       </c>
       <c r="U28" s="68"/>
-      <c r="V28" s="147"/>
+      <c r="V28" s="96"/>
       <c r="W28" s="68"/>
       <c r="X28" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y28" s="68">
         <v>5</v>
@@ -4991,18 +5058,18 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="68"/>
     </row>
-    <row r="29" spans="2:29" ht="24">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>101</v>
@@ -5013,7 +5080,7 @@
       <c r="H29" s="68"/>
       <c r="I29" s="68"/>
       <c r="J29" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K29" s="68">
         <v>1</v>
@@ -5021,27 +5088,27 @@
       <c r="L29" s="68"/>
       <c r="M29" s="68"/>
       <c r="N29" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O29" s="64"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R29" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S29" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T29" s="68" t="s">
         <v>101</v>
       </c>
       <c r="U29" s="68"/>
-      <c r="V29" s="147"/>
+      <c r="V29" s="96"/>
       <c r="W29" s="68"/>
       <c r="X29" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y29" s="68">
         <v>1</v>
@@ -5051,18 +5118,18 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="68" t="s">
         <v>102</v>
@@ -5073,7 +5140,7 @@
       <c r="H30" s="68"/>
       <c r="I30" s="68"/>
       <c r="J30" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K30" s="68">
         <v>3</v>
@@ -5081,27 +5148,27 @@
       <c r="L30" s="68"/>
       <c r="M30" s="68"/>
       <c r="N30" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O30" s="64"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R30" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S30" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T30" s="68" t="s">
         <v>102</v>
       </c>
       <c r="U30" s="68"/>
-      <c r="V30" s="147"/>
+      <c r="V30" s="96"/>
       <c r="W30" s="68"/>
       <c r="X30" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y30" s="68">
         <v>3</v>
@@ -5111,18 +5178,18 @@
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="88" t="s">
         <v>104</v>
@@ -5133,7 +5200,7 @@
       <c r="H31" s="68"/>
       <c r="I31" s="68"/>
       <c r="J31" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K31" s="68">
         <v>6</v>
@@ -5141,27 +5208,27 @@
       <c r="L31" s="68"/>
       <c r="M31" s="68"/>
       <c r="N31" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O31" s="64"/>
       <c r="P31" s="65"/>
       <c r="Q31" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R31" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R31" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S31" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T31" s="68" t="s">
         <v>103</v>
       </c>
       <c r="U31" s="68"/>
-      <c r="V31" s="147"/>
+      <c r="V31" s="96"/>
       <c r="W31" s="68"/>
       <c r="X31" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y31" s="68">
         <v>6</v>
@@ -5171,29 +5238,29 @@
       <c r="AB31" s="68"/>
       <c r="AC31" s="68"/>
     </row>
-    <row r="32" spans="2:29" ht="24">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G32" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32" s="68"/>
       <c r="I32" s="68"/>
       <c r="J32" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K32" s="68">
         <v>1</v>
@@ -5201,27 +5268,27 @@
       <c r="L32" s="68"/>
       <c r="M32" s="68"/>
       <c r="N32" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O32" s="64"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R32" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R32" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S32" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="T32" s="68" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="T32" s="88" t="s">
+        <v>116</v>
       </c>
       <c r="U32" s="68"/>
-      <c r="V32" s="147"/>
+      <c r="V32" s="96"/>
       <c r="W32" s="68"/>
       <c r="X32" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y32" s="68">
         <v>1</v>
@@ -5231,29 +5298,29 @@
       <c r="AB32" s="68"/>
       <c r="AC32" s="68"/>
     </row>
-    <row r="33" spans="2:29" ht="24">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" s="68"/>
       <c r="I33" s="68"/>
       <c r="J33" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K33" s="68">
         <v>1</v>
@@ -5261,27 +5328,27 @@
       <c r="L33" s="68"/>
       <c r="M33" s="68"/>
       <c r="N33" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O33" s="64"/>
       <c r="P33" s="65"/>
       <c r="Q33" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R33" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S33" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T33" s="68" t="s">
         <v>105</v>
       </c>
       <c r="U33" s="68"/>
-      <c r="V33" s="147"/>
+      <c r="V33" s="96"/>
       <c r="W33" s="68"/>
       <c r="X33" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y33" s="68">
         <v>1</v>
@@ -5291,29 +5358,29 @@
       <c r="AB33" s="68"/>
       <c r="AC33" s="68"/>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" s="68"/>
       <c r="I34" s="68"/>
       <c r="J34" s="68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K34" s="68">
         <v>1</v>
@@ -5321,27 +5388,27 @@
       <c r="L34" s="68"/>
       <c r="M34" s="68"/>
       <c r="N34" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O34" s="64"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R34" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R34" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S34" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T34" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U34" s="68"/>
-      <c r="V34" s="147"/>
+      <c r="V34" s="96"/>
       <c r="W34" s="68"/>
       <c r="X34" s="68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y34" s="68">
         <v>1</v>
@@ -5351,49 +5418,49 @@
       <c r="AB34" s="68"/>
       <c r="AC34" s="68"/>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="81"/>
       <c r="C35" s="81"/>
       <c r="D35" s="80"/>
       <c r="E35" s="79"/>
       <c r="F35" s="80"/>
       <c r="G35" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="68"/>
       <c r="I35" s="68"/>
       <c r="J35" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K35" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L35" s="68"/>
       <c r="M35" s="68"/>
       <c r="N35" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O35" s="64"/>
       <c r="P35" s="65"/>
       <c r="Q35" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R35" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="R35" s="66" t="s">
-        <v>122</v>
-      </c>
       <c r="S35" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T35" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U35" s="68"/>
-      <c r="V35" s="147"/>
+      <c r="V35" s="96"/>
       <c r="W35" s="68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="X35" s="68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y35" s="3">
         <v>60</v>
@@ -5403,89 +5470,83 @@
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
     </row>
-    <row r="36" spans="2:29" ht="26.25" customHeight="1">
+    <row r="36" spans="2:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="71" t="s">
-        <v>86</v>
+        <v>120</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>85</v>
       </c>
       <c r="H36" s="68"/>
       <c r="I36" s="68"/>
       <c r="J36" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K36" s="68">
-        <v>6</v>
-      </c>
-      <c r="L36" s="68"/>
+        <v>12</v>
+      </c>
+      <c r="L36" s="68">
+        <v>2</v>
+      </c>
       <c r="M36" s="68"/>
-      <c r="N36" s="68" t="s">
-        <v>123</v>
+      <c r="N36" s="89" t="s">
+        <v>130</v>
       </c>
       <c r="O36" s="87"/>
       <c r="P36" s="87"/>
       <c r="Q36" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="R36" s="86" t="s">
-        <v>122</v>
-      </c>
       <c r="S36" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T36" s="89" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="U36" s="68"/>
-      <c r="V36" s="147"/>
+      <c r="V36" s="96"/>
       <c r="W36" s="68"/>
       <c r="X36" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y36" s="68">
-        <v>6</v>
-      </c>
-      <c r="Z36" s="68"/>
+        <v>12</v>
+      </c>
+      <c r="Z36" s="68">
+        <v>2</v>
+      </c>
       <c r="AA36" s="68"/>
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="2:29" ht="46.5" customHeight="1">
-      <c r="B37" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="73" t="s">
-        <v>85</v>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="72" t="s">
+        <v>118</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
       <c r="J37" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K37" s="68">
         <v>6</v>
@@ -5494,67 +5555,87 @@
         <v>2</v>
       </c>
       <c r="M37" s="68"/>
-      <c r="N37" s="89" t="s">
+      <c r="N37" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S37" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T37" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="U37" s="68"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="R37" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S37" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="T37" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="U37" s="68"/>
-      <c r="V37" s="147"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
+      <c r="Y37" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="68">
+        <v>2</v>
+      </c>
       <c r="AA37" s="68"/>
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="2:29">
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="72" t="s">
+    <row r="38" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="68" t="s">
         <v>119</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>90</v>
       </c>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
+      <c r="J38" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" s="68">
+        <v>1</v>
+      </c>
       <c r="L38" s="68"/>
       <c r="M38" s="68"/>
-      <c r="N38" s="73" t="s">
+      <c r="N38" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="68" t="s">
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="R38" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="S38" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="T38" s="72" t="s">
-        <v>119</v>
+      <c r="S38" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="T38" s="89" t="s">
+        <v>109</v>
       </c>
       <c r="U38" s="68"/>
-      <c r="V38" s="147"/>
+      <c r="V38" s="96"/>
       <c r="W38" s="68"/>
       <c r="X38" s="68"/>
       <c r="Y38" s="68"/>
@@ -5563,54 +5644,30 @@
       <c r="AB38" s="68"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="2:29" ht="12.75" customHeight="1">
-      <c r="B39" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>90</v>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="85" t="s">
+        <v>125</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
-      <c r="J39" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="K39" s="68">
-        <v>1</v>
-      </c>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
       <c r="L39" s="68"/>
       <c r="M39" s="68"/>
-      <c r="N39" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="O39" s="140"/>
-      <c r="P39" s="140"/>
-      <c r="Q39" s="137" t="s">
-        <v>121</v>
-      </c>
-      <c r="R39" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="S39" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="T39" s="89" t="s">
-        <v>110</v>
-      </c>
+      <c r="N39" s="159"/>
+      <c r="O39" s="146"/>
+      <c r="P39" s="146"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
       <c r="U39" s="68"/>
-      <c r="V39" s="147"/>
+      <c r="V39" s="96"/>
       <c r="W39" s="68"/>
       <c r="X39" s="68"/>
       <c r="Y39" s="68"/>
@@ -5619,13 +5676,13 @@
       <c r="AB39" s="68"/>
       <c r="AC39" s="68"/>
     </row>
-    <row r="40" spans="2:29">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="78"/>
       <c r="C40" s="78"/>
       <c r="D40" s="78"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
-      <c r="G40" s="85" t="s">
+      <c r="G40" s="71" t="s">
         <v>126</v>
       </c>
       <c r="H40" s="68"/>
@@ -5634,15 +5691,15 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="138"/>
-      <c r="O40" s="141"/>
-      <c r="P40" s="141"/>
-      <c r="Q40" s="138"/>
-      <c r="R40" s="138"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="146"/>
+      <c r="P40" s="146"/>
+      <c r="Q40" s="159"/>
+      <c r="R40" s="159"/>
       <c r="S40" s="90"/>
       <c r="T40" s="90"/>
       <c r="U40" s="68"/>
-      <c r="V40" s="147"/>
+      <c r="V40" s="96"/>
       <c r="W40" s="68"/>
       <c r="X40" s="68"/>
       <c r="Y40" s="68"/>
@@ -5651,30 +5708,44 @@
       <c r="AB40" s="68"/>
       <c r="AC40" s="68"/>
     </row>
-    <row r="41" spans="2:29">
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B41" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>78</v>
+      </c>
       <c r="G41" s="71" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
+      <c r="J41" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" s="68">
+        <v>2</v>
+      </c>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="138"/>
-      <c r="O41" s="141"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="138"/>
-      <c r="R41" s="138"/>
+      <c r="N41" s="159"/>
+      <c r="O41" s="146"/>
+      <c r="P41" s="146"/>
+      <c r="Q41" s="159"/>
+      <c r="R41" s="159"/>
       <c r="S41" s="90"/>
       <c r="T41" s="90"/>
       <c r="U41" s="68"/>
-      <c r="V41" s="147"/>
+      <c r="V41" s="96"/>
       <c r="W41" s="68"/>
       <c r="X41" s="68"/>
       <c r="Y41" s="68"/>
@@ -5683,44 +5754,44 @@
       <c r="AB41" s="68"/>
       <c r="AC41" s="68"/>
     </row>
-    <row r="42" spans="2:29">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="71" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H42" s="68"/>
       <c r="I42" s="68"/>
-      <c r="J42" s="67" t="s">
-        <v>134</v>
+      <c r="J42" s="68" t="s">
+        <v>132</v>
       </c>
       <c r="K42" s="68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="141"/>
-      <c r="P42" s="141"/>
-      <c r="Q42" s="138"/>
-      <c r="R42" s="138"/>
+      <c r="N42" s="159"/>
+      <c r="O42" s="146"/>
+      <c r="P42" s="146"/>
+      <c r="Q42" s="159"/>
+      <c r="R42" s="159"/>
       <c r="S42" s="90"/>
       <c r="T42" s="90"/>
       <c r="U42" s="68"/>
-      <c r="V42" s="147"/>
+      <c r="V42" s="96"/>
       <c r="W42" s="68"/>
       <c r="X42" s="68"/>
       <c r="Y42" s="68"/>
@@ -5729,44 +5800,44 @@
       <c r="AB42" s="68"/>
       <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="71" t="s">
-        <v>83</v>
+        <v>120</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>84</v>
       </c>
       <c r="G43" s="71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" s="68"/>
       <c r="I43" s="68"/>
       <c r="J43" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K43" s="68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="141"/>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="138"/>
-      <c r="R43" s="138"/>
+      <c r="N43" s="159"/>
+      <c r="O43" s="146"/>
+      <c r="P43" s="146"/>
+      <c r="Q43" s="159"/>
+      <c r="R43" s="159"/>
       <c r="S43" s="90"/>
       <c r="T43" s="90"/>
       <c r="U43" s="68"/>
-      <c r="V43" s="147"/>
+      <c r="V43" s="96"/>
       <c r="W43" s="68"/>
       <c r="X43" s="68"/>
       <c r="Y43" s="68"/>
@@ -5775,44 +5846,44 @@
       <c r="AB43" s="68"/>
       <c r="AC43" s="68"/>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="67" t="s">
-        <v>84</v>
+        <v>120</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>81</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
       <c r="J44" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K44" s="68">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="138"/>
-      <c r="O44" s="141"/>
-      <c r="P44" s="141"/>
-      <c r="Q44" s="138"/>
-      <c r="R44" s="138"/>
+      <c r="N44" s="159"/>
+      <c r="O44" s="146"/>
+      <c r="P44" s="146"/>
+      <c r="Q44" s="159"/>
+      <c r="R44" s="159"/>
       <c r="S44" s="90"/>
       <c r="T44" s="90"/>
       <c r="U44" s="68"/>
-      <c r="V44" s="147"/>
+      <c r="V44" s="96"/>
       <c r="W44" s="68"/>
       <c r="X44" s="68"/>
       <c r="Y44" s="68"/>
@@ -5821,44 +5892,44 @@
       <c r="AB44" s="68"/>
       <c r="AC44" s="68"/>
     </row>
-    <row r="45" spans="2:29">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E45" s="69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F45" s="71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G45" s="71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="68"/>
       <c r="J45" s="68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K45" s="68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="138"/>
-      <c r="R45" s="138"/>
+      <c r="N45" s="159"/>
+      <c r="O45" s="146"/>
+      <c r="P45" s="146"/>
+      <c r="Q45" s="159"/>
+      <c r="R45" s="159"/>
       <c r="S45" s="90"/>
       <c r="T45" s="90"/>
       <c r="U45" s="68"/>
-      <c r="V45" s="147"/>
+      <c r="V45" s="96"/>
       <c r="W45" s="68"/>
       <c r="X45" s="68"/>
       <c r="Y45" s="68"/>
@@ -5867,12 +5938,12 @@
       <c r="AB45" s="68"/>
       <c r="AC45" s="68"/>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="69" t="s">
         <v>115</v>
@@ -5881,30 +5952,30 @@
         <v>115</v>
       </c>
       <c r="F46" s="71" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H46" s="68"/>
       <c r="I46" s="68"/>
       <c r="J46" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K46" s="68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="141"/>
-      <c r="P46" s="141"/>
-      <c r="Q46" s="138"/>
-      <c r="R46" s="138"/>
+      <c r="N46" s="159"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+      <c r="Q46" s="159"/>
+      <c r="R46" s="159"/>
       <c r="S46" s="90"/>
       <c r="T46" s="90"/>
       <c r="U46" s="68"/>
-      <c r="V46" s="147"/>
+      <c r="V46" s="96"/>
       <c r="W46" s="68"/>
       <c r="X46" s="68"/>
       <c r="Y46" s="68"/>
@@ -5913,44 +5984,44 @@
       <c r="AB46" s="68"/>
       <c r="AC46" s="68"/>
     </row>
-    <row r="47" spans="2:29">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F47" s="71" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G47" s="71" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H47" s="68"/>
       <c r="I47" s="68"/>
       <c r="J47" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K47" s="68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="141"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="138"/>
-      <c r="R47" s="138"/>
+      <c r="N47" s="159"/>
+      <c r="O47" s="146"/>
+      <c r="P47" s="146"/>
+      <c r="Q47" s="159"/>
+      <c r="R47" s="159"/>
       <c r="S47" s="90"/>
       <c r="T47" s="90"/>
       <c r="U47" s="68"/>
-      <c r="V47" s="147"/>
+      <c r="V47" s="96"/>
       <c r="W47" s="68"/>
       <c r="X47" s="68"/>
       <c r="Y47" s="68"/>
@@ -5959,44 +6030,44 @@
       <c r="AB47" s="68"/>
       <c r="AC47" s="68"/>
     </row>
-    <row r="48" spans="2:29">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="71" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H48" s="68"/>
       <c r="I48" s="68"/>
       <c r="J48" s="68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K48" s="68">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="141"/>
-      <c r="P48" s="141"/>
-      <c r="Q48" s="138"/>
-      <c r="R48" s="138"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="160"/>
+      <c r="R48" s="160"/>
+      <c r="S48" s="91"/>
+      <c r="T48" s="91"/>
       <c r="U48" s="68"/>
-      <c r="V48" s="147"/>
+      <c r="V48" s="96"/>
       <c r="W48" s="68"/>
       <c r="X48" s="68"/>
       <c r="Y48" s="68"/>
@@ -6005,44 +6076,54 @@
       <c r="AB48" s="68"/>
       <c r="AC48" s="68"/>
     </row>
-    <row r="49" spans="2:29">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="71" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G49" s="71" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H49" s="68"/>
       <c r="I49" s="68"/>
       <c r="J49" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K49" s="68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="139"/>
-      <c r="O49" s="142"/>
-      <c r="P49" s="142"/>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="139"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="91"/>
+      <c r="N49" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="O49" s="145"/>
+      <c r="P49" s="145"/>
+      <c r="Q49" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="S49" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="T49" s="89" t="s">
+        <v>110</v>
+      </c>
       <c r="U49" s="68"/>
-      <c r="V49" s="147"/>
+      <c r="V49" s="96"/>
       <c r="W49" s="68"/>
       <c r="X49" s="68"/>
       <c r="Y49" s="68"/>
@@ -6051,54 +6132,44 @@
       <c r="AB49" s="68"/>
       <c r="AC49" s="68"/>
     </row>
-    <row r="50" spans="2:29">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G50" s="71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
       <c r="J50" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K50" s="68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="128" t="s">
-        <v>128</v>
-      </c>
-      <c r="O50" s="140"/>
-      <c r="P50" s="140"/>
-      <c r="Q50" s="137" t="s">
-        <v>121</v>
-      </c>
-      <c r="R50" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="S50" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="T50" s="89" t="s">
-        <v>111</v>
-      </c>
+      <c r="N50" s="152"/>
+      <c r="O50" s="146"/>
+      <c r="P50" s="146"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="159"/>
+      <c r="S50" s="90"/>
+      <c r="T50" s="90"/>
       <c r="U50" s="68"/>
-      <c r="V50" s="147"/>
+      <c r="V50" s="96"/>
       <c r="W50" s="68"/>
       <c r="X50" s="68"/>
       <c r="Y50" s="68"/>
@@ -6107,44 +6178,44 @@
       <c r="AB50" s="68"/>
       <c r="AC50" s="68"/>
     </row>
-    <row r="51" spans="2:29">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" s="71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="68"/>
       <c r="J51" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K51" s="68">
         <v>4</v>
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="141"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="138"/>
-      <c r="R51" s="138"/>
+      <c r="N51" s="152"/>
+      <c r="O51" s="146"/>
+      <c r="P51" s="146"/>
+      <c r="Q51" s="159"/>
+      <c r="R51" s="159"/>
       <c r="S51" s="90"/>
       <c r="T51" s="90"/>
       <c r="U51" s="68"/>
-      <c r="V51" s="147"/>
+      <c r="V51" s="96"/>
       <c r="W51" s="68"/>
       <c r="X51" s="68"/>
       <c r="Y51" s="68"/>
@@ -6153,44 +6224,44 @@
       <c r="AB51" s="68"/>
       <c r="AC51" s="68"/>
     </row>
-    <row r="52" spans="2:29">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="71" t="s">
-        <v>83</v>
+        <v>120</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>84</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="68"/>
       <c r="J52" s="68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K52" s="68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="141"/>
-      <c r="P52" s="141"/>
-      <c r="Q52" s="138"/>
-      <c r="R52" s="138"/>
+      <c r="N52" s="152"/>
+      <c r="O52" s="146"/>
+      <c r="P52" s="146"/>
+      <c r="Q52" s="159"/>
+      <c r="R52" s="159"/>
       <c r="S52" s="90"/>
       <c r="T52" s="90"/>
       <c r="U52" s="68"/>
-      <c r="V52" s="147"/>
+      <c r="V52" s="96"/>
       <c r="W52" s="68"/>
       <c r="X52" s="68"/>
       <c r="Y52" s="68"/>
@@ -6199,44 +6270,44 @@
       <c r="AB52" s="68"/>
       <c r="AC52" s="68"/>
     </row>
-    <row r="53" spans="2:29">
+    <row r="53" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="67" t="s">
-        <v>84</v>
+        <v>120</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="71" t="s">
+        <v>82</v>
       </c>
       <c r="G53" s="71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="68"/>
       <c r="J53" s="68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K53" s="68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="141"/>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="138"/>
+      <c r="N53" s="152"/>
+      <c r="O53" s="146"/>
+      <c r="P53" s="146"/>
+      <c r="Q53" s="159"/>
+      <c r="R53" s="159"/>
       <c r="S53" s="90"/>
       <c r="T53" s="90"/>
       <c r="U53" s="68"/>
-      <c r="V53" s="147"/>
+      <c r="V53" s="96"/>
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="68"/>
@@ -6245,44 +6316,36 @@
       <c r="AB53" s="68"/>
       <c r="AC53" s="68"/>
     </row>
-    <row r="54" spans="2:29" ht="15" customHeight="1">
-      <c r="B54" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="69" t="s">
-        <v>115</v>
-      </c>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="79"/>
       <c r="F54" s="71" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G54" s="71" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="68"/>
       <c r="J54" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="K54" s="68">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="K54" s="3">
+        <v>60</v>
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="141"/>
-      <c r="P54" s="141"/>
-      <c r="Q54" s="138"/>
-      <c r="R54" s="138"/>
+      <c r="N54" s="152"/>
+      <c r="O54" s="146"/>
+      <c r="P54" s="146"/>
+      <c r="Q54" s="159"/>
+      <c r="R54" s="159"/>
       <c r="S54" s="90"/>
       <c r="T54" s="90"/>
       <c r="U54" s="68"/>
-      <c r="V54" s="147"/>
+      <c r="V54" s="96"/>
       <c r="W54" s="68"/>
       <c r="X54" s="68"/>
       <c r="Y54" s="68"/>
@@ -6291,36 +6354,44 @@
       <c r="AB54" s="68"/>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:29">
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="79"/>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B55" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="69" t="s">
+        <v>111</v>
+      </c>
       <c r="F55" s="71" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G55" s="71" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="68"/>
       <c r="J55" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="K55" s="3">
-        <v>60</v>
+        <v>132</v>
+      </c>
+      <c r="K55" s="68">
+        <v>6</v>
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="141"/>
-      <c r="P55" s="141"/>
-      <c r="Q55" s="138"/>
-      <c r="R55" s="138"/>
+      <c r="N55" s="152"/>
+      <c r="O55" s="146"/>
+      <c r="P55" s="146"/>
+      <c r="Q55" s="159"/>
+      <c r="R55" s="159"/>
       <c r="S55" s="90"/>
       <c r="T55" s="90"/>
       <c r="U55" s="68"/>
-      <c r="V55" s="147"/>
+      <c r="V55" s="96"/>
       <c r="W55" s="68"/>
       <c r="X55" s="68"/>
       <c r="Y55" s="68"/>
@@ -6329,44 +6400,44 @@
       <c r="AB55" s="68"/>
       <c r="AC55" s="68"/>
     </row>
-    <row r="56" spans="2:29">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D56" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G56" s="71" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
       <c r="J56" s="68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K56" s="68">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="129"/>
-      <c r="O56" s="141"/>
-      <c r="P56" s="141"/>
-      <c r="Q56" s="138"/>
-      <c r="R56" s="138"/>
-      <c r="S56" s="90"/>
-      <c r="T56" s="90"/>
+      <c r="N56" s="153"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
+      <c r="Q56" s="160"/>
+      <c r="R56" s="160"/>
+      <c r="S56" s="91"/>
+      <c r="T56" s="91"/>
       <c r="U56" s="68"/>
-      <c r="V56" s="147"/>
+      <c r="V56" s="96"/>
       <c r="W56" s="68"/>
       <c r="X56" s="68"/>
       <c r="Y56" s="68"/>
@@ -6375,181 +6446,158 @@
       <c r="AB56" s="68"/>
       <c r="AC56" s="68"/>
     </row>
-    <row r="57" spans="2:29">
-      <c r="B57" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="68" t="s">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="103"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="O57" s="105"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="R57" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68" t="s">
+      <c r="S57" s="105"/>
+      <c r="T57" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="U57" s="105"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="X57" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y57" s="96">
+        <v>2</v>
+      </c>
+      <c r="Z57" s="96"/>
+      <c r="AA57" s="96"/>
+      <c r="AB57" s="96"/>
+      <c r="AC57" s="96"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="O58" s="105"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="R58" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S58" s="105"/>
+      <c r="T58" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="U58" s="105"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="X58" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y58" s="96">
+        <v>2</v>
+      </c>
+      <c r="Z58" s="96"/>
+      <c r="AA58" s="96"/>
+      <c r="AB58" s="96"/>
+      <c r="AC58" s="96"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="105"/>
+      <c r="O59" s="105"/>
+      <c r="P59" s="105"/>
+      <c r="Q59" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="R59" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S59" s="105"/>
+      <c r="T59" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="U59" s="105"/>
+      <c r="V59" s="106"/>
+      <c r="W59" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="X59" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="K57" s="68">
-        <v>10</v>
-      </c>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="130"/>
-      <c r="O57" s="142"/>
-      <c r="P57" s="142"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="147"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-    </row>
-    <row r="58" spans="2:29">
-      <c r="B58" s="153"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="153"/>
-      <c r="I58" s="153"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="153"/>
-      <c r="N58" s="157" t="s">
-        <v>145</v>
-      </c>
-      <c r="O58" s="158"/>
-      <c r="P58" s="158"/>
-      <c r="Q58" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="R58" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="S58" s="158"/>
-      <c r="T58" s="157" t="s">
-        <v>147</v>
-      </c>
-      <c r="U58" s="158"/>
-      <c r="V58" s="159"/>
-      <c r="W58" s="151" t="s">
-        <v>150</v>
-      </c>
-      <c r="X58" s="151" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y58" s="147">
-        <v>2</v>
-      </c>
-      <c r="Z58" s="147"/>
-      <c r="AA58" s="147"/>
-      <c r="AB58" s="147"/>
-      <c r="AC58" s="147"/>
-    </row>
-    <row r="59" spans="2:29">
-      <c r="B59" s="153"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="153"/>
-      <c r="H59" s="153"/>
-      <c r="I59" s="153"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="153"/>
-      <c r="N59" s="157" t="s">
-        <v>146</v>
-      </c>
-      <c r="O59" s="158"/>
-      <c r="P59" s="158"/>
-      <c r="Q59" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="R59" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="S59" s="158"/>
-      <c r="T59" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="U59" s="158"/>
-      <c r="V59" s="159"/>
-      <c r="W59" s="151" t="s">
-        <v>150</v>
-      </c>
-      <c r="X59" s="151" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y59" s="147">
-        <v>2</v>
-      </c>
-      <c r="Z59" s="147"/>
-      <c r="AA59" s="147"/>
-      <c r="AB59" s="147"/>
-      <c r="AC59" s="147"/>
-    </row>
-    <row r="60" spans="2:29">
-      <c r="B60" s="153"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="153"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="158"/>
-      <c r="P60" s="158"/>
-      <c r="Q60" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="R60" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="S60" s="158"/>
-      <c r="T60" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="U60" s="158"/>
-      <c r="V60" s="159"/>
-      <c r="W60" s="151" t="s">
-        <v>150</v>
-      </c>
-      <c r="X60" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y60" s="147"/>
-      <c r="Z60" s="147"/>
-      <c r="AA60" s="147"/>
-      <c r="AB60" s="147"/>
-      <c r="AC60" s="147"/>
-    </row>
-    <row r="61" spans="2:29">
+      <c r="Y59" s="96"/>
+      <c r="Z59" s="96"/>
+      <c r="AA59" s="96"/>
+      <c r="AB59" s="96"/>
+      <c r="AC59" s="96"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="63"/>
+      <c r="T60" s="63"/>
+      <c r="U60" s="63"/>
+      <c r="V60" s="59"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="60"/>
@@ -6572,7 +6620,7 @@
       <c r="U61" s="63"/>
       <c r="V61" s="59"/>
     </row>
-    <row r="62" spans="2:29">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
       <c r="D62" s="60"/>
@@ -6595,7 +6643,7 @@
       <c r="U62" s="63"/>
       <c r="V62" s="59"/>
     </row>
-    <row r="63" spans="2:29">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
       <c r="D63" s="60"/>
@@ -6618,7 +6666,7 @@
       <c r="U63" s="63"/>
       <c r="V63" s="59"/>
     </row>
-    <row r="64" spans="2:29">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
       <c r="D64" s="60"/>
@@ -6641,7 +6689,7 @@
       <c r="U64" s="63"/>
       <c r="V64" s="59"/>
     </row>
-    <row r="65" spans="2:22">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="60"/>
@@ -6664,7 +6712,7 @@
       <c r="U65" s="63"/>
       <c r="V65" s="59"/>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="60"/>
@@ -6687,7 +6735,7 @@
       <c r="U66" s="63"/>
       <c r="V66" s="59"/>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="60"/>
@@ -6710,7 +6758,7 @@
       <c r="U67" s="63"/>
       <c r="V67" s="59"/>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
@@ -6733,7 +6781,7 @@
       <c r="U68" s="63"/>
       <c r="V68" s="59"/>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
@@ -6756,7 +6804,7 @@
       <c r="U69" s="63"/>
       <c r="V69" s="59"/>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -6779,7 +6827,7 @@
       <c r="U70" s="63"/>
       <c r="V70" s="59"/>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
@@ -6802,7 +6850,7 @@
       <c r="U71" s="63"/>
       <c r="V71" s="59"/>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
@@ -6825,7 +6873,7 @@
       <c r="U72" s="63"/>
       <c r="V72" s="59"/>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
@@ -6848,7 +6896,7 @@
       <c r="U73" s="63"/>
       <c r="V73" s="59"/>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="60"/>
@@ -6871,7 +6919,7 @@
       <c r="U74" s="63"/>
       <c r="V74" s="59"/>
     </row>
-    <row r="75" spans="2:22">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
@@ -6894,7 +6942,7 @@
       <c r="U75" s="63"/>
       <c r="V75" s="59"/>
     </row>
-    <row r="76" spans="2:22">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -6917,7 +6965,7 @@
       <c r="U76" s="63"/>
       <c r="V76" s="59"/>
     </row>
-    <row r="77" spans="2:22">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="60"/>
@@ -6940,7 +6988,7 @@
       <c r="U77" s="63"/>
       <c r="V77" s="59"/>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="60"/>
@@ -6963,7 +7011,7 @@
       <c r="U78" s="63"/>
       <c r="V78" s="59"/>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="60"/>
@@ -6986,7 +7034,7 @@
       <c r="U79" s="63"/>
       <c r="V79" s="59"/>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="60"/>
@@ -7009,7 +7057,7 @@
       <c r="U80" s="63"/>
       <c r="V80" s="59"/>
     </row>
-    <row r="81" spans="2:22">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="60"/>
@@ -7032,12 +7080,12 @@
       <c r="U81" s="63"/>
       <c r="V81" s="59"/>
     </row>
-    <row r="82" spans="2:22">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
-      <c r="F82" s="61"/>
+      <c r="F82" s="60"/>
       <c r="G82" s="59"/>
       <c r="H82" s="59"/>
       <c r="I82" s="59"/>
@@ -7055,44 +7103,21 @@
       <c r="U82" s="63"/>
       <c r="V82" s="59"/>
     </row>
-    <row r="83" spans="2:22">
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="63"/>
-      <c r="O83" s="63"/>
-      <c r="P83" s="63"/>
-      <c r="Q83" s="63"/>
-      <c r="R83" s="63"/>
-      <c r="S83" s="63"/>
-      <c r="T83" s="63"/>
-      <c r="U83" s="63"/>
-      <c r="V83" s="59"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O50:O57"/>
+    <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="N50:N57"/>
+    <mergeCell ref="N49:N56"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q50:Q57"/>
-    <mergeCell ref="N39:N49"/>
-    <mergeCell ref="O39:O49"/>
-    <mergeCell ref="P39:P49"/>
-    <mergeCell ref="Q39:Q49"/>
-    <mergeCell ref="R39:R49"/>
-    <mergeCell ref="R50:R57"/>
-    <mergeCell ref="P50:P57"/>
+    <mergeCell ref="Q49:Q56"/>
+    <mergeCell ref="N38:N48"/>
+    <mergeCell ref="O38:O48"/>
+    <mergeCell ref="P38:P48"/>
+    <mergeCell ref="Q38:Q48"/>
+    <mergeCell ref="R38:R48"/>
+    <mergeCell ref="R49:R56"/>
+    <mergeCell ref="P49:P56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7102,7 +7127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7110,7 +7135,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -7118,7 +7143,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -7138,7 +7163,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -7158,7 +7183,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -7183,7 +7208,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -7205,7 +7230,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -7213,7 +7238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -7221,7 +7246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -7229,7 +7254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -7237,7 +7262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -7245,7 +7270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -7253,7 +7278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -7261,7 +7286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -7269,7 +7294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -7277,7 +7302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -7285,7 +7310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -7293,7 +7318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -7301,7 +7326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -7309,7 +7334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -7317,7 +7342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -7325,7 +7350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -7333,7 +7358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -7341,7 +7366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -7360,16 +7385,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -7418,39 +7442,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7465,10 +7475,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL_P1.xlsx
+++ b/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL_P1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" activeTab="3"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="738" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
     <sheet name="Desenho do Mapa" sheetId="16" r:id="rId3"/>
     <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
-    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
+    <sheet name="Mapeamento - P2" sheetId="17" r:id="rId5"/>
+    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -102,8 +103,46 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="152">
   <si>
     <t>Schema</t>
   </si>
@@ -1062,12 +1101,27 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>Se IND_AUTORIZACAO = 3 and IND_FIXO_VARIAVEL = 'V' and IND_TIPO_SALARIO in ('H','M') entao campo = 2</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>IF IND_TIPO_CONTRATO IN ('F', 'S')
+    THEN
+      V_DESTINO := 1;
+   ELSIF R_AP.IND_TIPO_CONTRATO = 'P'
+     THEN
+      V_DESTINO := 2;
+  END IF;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1622,7 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1919,6 +1973,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1931,15 +2039,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1979,14 +2078,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2000,35 +2105,20 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2100,7 +2190,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2130,7 +2220,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2197,7 +2287,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2245,7 +2335,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2268,14 +2358,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2318,7 +2408,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2341,14 +2431,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2362,52 +2452,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15364" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15364"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2497,7 +2541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2532,7 +2575,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2708,7 +2750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2716,7 +2758,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2725,13 +2767,13 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="108" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1">
+      <c r="C2" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="108"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="126"/>
+    </row>
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>135</v>
       </c>
@@ -2739,22 +2781,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="C5" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2765,135 +2807,143 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="115" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="133"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121" t="s">
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="127"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="130"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="122"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="130"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2904,14 +2954,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2921,7 +2963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2929,7 +2971,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="16" customWidth="1"/>
@@ -2938,7 +2980,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2947,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>135</v>
       </c>
@@ -2956,7 +2998,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -2967,142 +3009,142 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="135" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="99" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="99" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="148"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="99" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="148"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="99" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="148"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="99" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="148"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="99" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="99" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="148"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="99" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="148"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3113,20 +3155,20 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="133" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="47" t="s">
         <v>62</v>
       </c>
@@ -3136,42 +3178,42 @@
       <c r="D18" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="142"/>
-      <c r="G18" s="140" t="s">
+      <c r="F18" s="154"/>
+      <c r="G18" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="142"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-    </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+    </row>
+    <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3182,14 +3224,14 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="133" t="s">
+    <row r="22" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B22" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="46" t="s">
         <v>63</v>
       </c>
@@ -3200,7 +3242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="25.5">
       <c r="B24" s="98" t="s">
         <v>141</v>
       </c>
@@ -3209,12 +3251,12 @@
       </c>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3225,20 +3267,20 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="135" t="s">
+    <row r="27" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B27" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="51" t="s">
         <v>68</v>
       </c>
@@ -3248,64 +3290,62 @@
       <c r="D28" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="137" t="s">
+      <c r="E28" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137" t="s">
+      <c r="F28" s="145"/>
+      <c r="G28" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="D15:J15"/>
@@ -3314,13 +3354,15 @@
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3331,64 +3373,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="15364" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="15364" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="15364" r:id="rId2"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Q29" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T39" sqref="T39"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3421,52 +3438,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="D1" s="84"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
       <c r="U1" s="55"/>
     </row>
-    <row r="2" spans="2:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="154" t="s">
+    <row r="2" spans="2:29" ht="25.5" customHeight="1">
+      <c r="B2" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="156" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="148" t="s">
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="150"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3550,7 +3567,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B4" s="68" t="s">
         <v>119</v>
       </c>
@@ -3610,7 +3627,7 @@
       <c r="AB4" s="68"/>
       <c r="AC4" s="68"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="24">
       <c r="B5" s="68" t="s">
         <v>119</v>
       </c>
@@ -3670,7 +3687,7 @@
       <c r="AB5" s="68"/>
       <c r="AC5" s="68"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B6" s="68" t="s">
         <v>119</v>
       </c>
@@ -3730,7 +3747,7 @@
       <c r="AB6" s="68"/>
       <c r="AC6" s="68"/>
     </row>
-    <row r="7" spans="2:29" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="11.25" customHeight="1">
       <c r="B7" s="68" t="s">
         <v>119</v>
       </c>
@@ -3786,7 +3803,7 @@
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B8" s="68" t="s">
         <v>119</v>
       </c>
@@ -3842,7 +3859,7 @@
       <c r="AB8" s="68"/>
       <c r="AC8" s="68"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B9" s="68" t="s">
         <v>119</v>
       </c>
@@ -3902,7 +3919,7 @@
       <c r="AB9" s="70"/>
       <c r="AC9" s="70"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B10" s="68" t="s">
         <v>119</v>
       </c>
@@ -3962,7 +3979,7 @@
       <c r="AB10" s="70"/>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B11" s="68" t="s">
         <v>119</v>
       </c>
@@ -4022,7 +4039,7 @@
       <c r="AB11" s="70"/>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B12" s="68" t="s">
         <v>119</v>
       </c>
@@ -4082,7 +4099,7 @@
       <c r="AB12" s="70"/>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B13" s="68" t="s">
         <v>119</v>
       </c>
@@ -4146,7 +4163,7 @@
       <c r="AB13" s="70"/>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B14" s="68" t="s">
         <v>119</v>
       </c>
@@ -4210,7 +4227,7 @@
       <c r="AB14" s="70"/>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="2:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
       <c r="B15" s="68" t="s">
         <v>119</v>
       </c>
@@ -4274,7 +4291,7 @@
       <c r="AB15" s="70"/>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="B16" s="68" t="s">
         <v>119</v>
       </c>
@@ -4334,7 +4351,7 @@
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="B17" s="68" t="s">
         <v>119</v>
       </c>
@@ -4394,7 +4411,7 @@
       <c r="AB17" s="68"/>
       <c r="AC17" s="68"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="B18" s="68" t="s">
         <v>119</v>
       </c>
@@ -4454,7 +4471,7 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="68"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1">
       <c r="B19" s="68" t="s">
         <v>119</v>
       </c>
@@ -4518,7 +4535,7 @@
       <c r="AB19" s="68"/>
       <c r="AC19" s="68"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29">
       <c r="B20" s="68" t="s">
         <v>119</v>
       </c>
@@ -4578,7 +4595,7 @@
       <c r="AB20" s="68"/>
       <c r="AC20" s="68"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="B21" s="68" t="s">
         <v>119</v>
       </c>
@@ -4638,7 +4655,7 @@
       <c r="AB21" s="68"/>
       <c r="AC21" s="68"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29">
       <c r="B22" s="68" t="s">
         <v>119</v>
       </c>
@@ -4698,7 +4715,7 @@
       <c r="AB22" s="68"/>
       <c r="AC22" s="68"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29">
       <c r="B23" s="68" t="s">
         <v>119</v>
       </c>
@@ -4758,7 +4775,7 @@
       <c r="AB23" s="68"/>
       <c r="AC23" s="68"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29">
       <c r="B24" s="68" t="s">
         <v>119</v>
       </c>
@@ -4818,7 +4835,7 @@
       <c r="AB24" s="68"/>
       <c r="AC24" s="68"/>
     </row>
-    <row r="25" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" ht="24">
       <c r="B25" s="68" t="s">
         <v>119</v>
       </c>
@@ -4878,7 +4895,7 @@
       <c r="AB25" s="68"/>
       <c r="AC25" s="68"/>
     </row>
-    <row r="26" spans="2:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" ht="12" customHeight="1">
       <c r="B26" s="68" t="s">
         <v>119</v>
       </c>
@@ -4938,7 +4955,7 @@
       <c r="AB26" s="68"/>
       <c r="AC26" s="68"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29">
       <c r="B27" s="68" t="s">
         <v>119</v>
       </c>
@@ -4998,7 +5015,7 @@
       <c r="AB27" s="68"/>
       <c r="AC27" s="68"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29">
       <c r="B28" s="68" t="s">
         <v>119</v>
       </c>
@@ -5058,7 +5075,7 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="68"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29">
       <c r="B29" s="68" t="s">
         <v>119</v>
       </c>
@@ -5118,7 +5135,7 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29">
       <c r="B30" s="68" t="s">
         <v>119</v>
       </c>
@@ -5178,7 +5195,7 @@
       <c r="AB30" s="68"/>
       <c r="AC30" s="68"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29">
       <c r="B31" s="68" t="s">
         <v>119</v>
       </c>
@@ -5238,7 +5255,7 @@
       <c r="AB31" s="68"/>
       <c r="AC31" s="68"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29">
       <c r="B32" s="68" t="s">
         <v>119</v>
       </c>
@@ -5298,7 +5315,7 @@
       <c r="AB32" s="68"/>
       <c r="AC32" s="68"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29">
       <c r="B33" s="68" t="s">
         <v>119</v>
       </c>
@@ -5358,7 +5375,7 @@
       <c r="AB33" s="68"/>
       <c r="AC33" s="68"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34" s="68" t="s">
         <v>119</v>
       </c>
@@ -5418,7 +5435,7 @@
       <c r="AB34" s="68"/>
       <c r="AC34" s="68"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29">
       <c r="B35" s="81"/>
       <c r="C35" s="81"/>
       <c r="D35" s="80"/>
@@ -5470,7 +5487,7 @@
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
     </row>
-    <row r="36" spans="2:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" ht="46.5" customHeight="1">
       <c r="B36" s="68" t="s">
         <v>119</v>
       </c>
@@ -5501,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="M36" s="68"/>
-      <c r="N36" s="89" t="s">
+      <c r="N36" s="110" t="s">
         <v>130</v>
       </c>
       <c r="O36" s="87"/>
@@ -5534,7 +5551,7 @@
       <c r="AB36" s="68"/>
       <c r="AC36" s="68"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29">
       <c r="B37" s="78"/>
       <c r="C37" s="78"/>
       <c r="D37" s="82"/>
@@ -5588,7 +5605,7 @@
       <c r="AB37" s="68"/>
       <c r="AC37" s="68"/>
     </row>
-    <row r="38" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" ht="12.75" customHeight="1">
       <c r="B38" s="68" t="s">
         <v>119</v>
       </c>
@@ -5617,15 +5634,15 @@
       </c>
       <c r="L38" s="68"/>
       <c r="M38" s="68"/>
-      <c r="N38" s="158" t="s">
+      <c r="N38" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="158" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="158" t="s">
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="170" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="170" t="s">
         <v>121</v>
       </c>
       <c r="S38" s="89" t="s">
@@ -5644,7 +5661,7 @@
       <c r="AB38" s="68"/>
       <c r="AC38" s="68"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29">
       <c r="B39" s="78"/>
       <c r="C39" s="78"/>
       <c r="D39" s="78"/>
@@ -5659,11 +5676,11 @@
       <c r="K39" s="68"/>
       <c r="L39" s="68"/>
       <c r="M39" s="68"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="146"/>
-      <c r="P39" s="146"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="159"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="158"/>
+      <c r="P39" s="158"/>
+      <c r="Q39" s="171"/>
+      <c r="R39" s="171"/>
       <c r="S39" s="90"/>
       <c r="T39" s="90"/>
       <c r="U39" s="68"/>
@@ -5676,7 +5693,7 @@
       <c r="AB39" s="68"/>
       <c r="AC39" s="68"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29">
       <c r="B40" s="78"/>
       <c r="C40" s="78"/>
       <c r="D40" s="78"/>
@@ -5691,11 +5708,11 @@
       <c r="K40" s="68"/>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
-      <c r="N40" s="159"/>
-      <c r="O40" s="146"/>
-      <c r="P40" s="146"/>
-      <c r="Q40" s="159"/>
-      <c r="R40" s="159"/>
+      <c r="N40" s="171"/>
+      <c r="O40" s="158"/>
+      <c r="P40" s="158"/>
+      <c r="Q40" s="171"/>
+      <c r="R40" s="171"/>
       <c r="S40" s="90"/>
       <c r="T40" s="90"/>
       <c r="U40" s="68"/>
@@ -5708,7 +5725,7 @@
       <c r="AB40" s="68"/>
       <c r="AC40" s="68"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29">
       <c r="B41" s="68" t="s">
         <v>119</v>
       </c>
@@ -5737,11 +5754,11 @@
       </c>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="159"/>
-      <c r="O41" s="146"/>
-      <c r="P41" s="146"/>
-      <c r="Q41" s="159"/>
-      <c r="R41" s="159"/>
+      <c r="N41" s="171"/>
+      <c r="O41" s="158"/>
+      <c r="P41" s="158"/>
+      <c r="Q41" s="171"/>
+      <c r="R41" s="171"/>
       <c r="S41" s="90"/>
       <c r="T41" s="90"/>
       <c r="U41" s="68"/>
@@ -5754,7 +5771,7 @@
       <c r="AB41" s="68"/>
       <c r="AC41" s="68"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29">
       <c r="B42" s="68" t="s">
         <v>119</v>
       </c>
@@ -5783,11 +5800,11 @@
       </c>
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
-      <c r="N42" s="159"/>
-      <c r="O42" s="146"/>
-      <c r="P42" s="146"/>
-      <c r="Q42" s="159"/>
-      <c r="R42" s="159"/>
+      <c r="N42" s="171"/>
+      <c r="O42" s="158"/>
+      <c r="P42" s="158"/>
+      <c r="Q42" s="171"/>
+      <c r="R42" s="171"/>
       <c r="S42" s="90"/>
       <c r="T42" s="90"/>
       <c r="U42" s="68"/>
@@ -5800,7 +5817,7 @@
       <c r="AB42" s="68"/>
       <c r="AC42" s="68"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29">
       <c r="B43" s="68" t="s">
         <v>119</v>
       </c>
@@ -5829,11 +5846,11 @@
       </c>
       <c r="L43" s="68"/>
       <c r="M43" s="68"/>
-      <c r="N43" s="159"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="159"/>
-      <c r="R43" s="159"/>
+      <c r="N43" s="171"/>
+      <c r="O43" s="158"/>
+      <c r="P43" s="158"/>
+      <c r="Q43" s="171"/>
+      <c r="R43" s="171"/>
       <c r="S43" s="90"/>
       <c r="T43" s="90"/>
       <c r="U43" s="68"/>
@@ -5846,7 +5863,7 @@
       <c r="AB43" s="68"/>
       <c r="AC43" s="68"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29">
       <c r="B44" s="68" t="s">
         <v>119</v>
       </c>
@@ -5875,11 +5892,11 @@
       </c>
       <c r="L44" s="68"/>
       <c r="M44" s="68"/>
-      <c r="N44" s="159"/>
-      <c r="O44" s="146"/>
-      <c r="P44" s="146"/>
-      <c r="Q44" s="159"/>
-      <c r="R44" s="159"/>
+      <c r="N44" s="171"/>
+      <c r="O44" s="158"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="171"/>
+      <c r="R44" s="171"/>
       <c r="S44" s="90"/>
       <c r="T44" s="90"/>
       <c r="U44" s="68"/>
@@ -5892,7 +5909,7 @@
       <c r="AB44" s="68"/>
       <c r="AC44" s="68"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29">
       <c r="B45" s="68" t="s">
         <v>119</v>
       </c>
@@ -5921,11 +5938,11 @@
       </c>
       <c r="L45" s="68"/>
       <c r="M45" s="68"/>
-      <c r="N45" s="159"/>
-      <c r="O45" s="146"/>
-      <c r="P45" s="146"/>
-      <c r="Q45" s="159"/>
-      <c r="R45" s="159"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="158"/>
+      <c r="P45" s="158"/>
+      <c r="Q45" s="171"/>
+      <c r="R45" s="171"/>
       <c r="S45" s="90"/>
       <c r="T45" s="90"/>
       <c r="U45" s="68"/>
@@ -5938,7 +5955,7 @@
       <c r="AB45" s="68"/>
       <c r="AC45" s="68"/>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29">
       <c r="B46" s="68" t="s">
         <v>119</v>
       </c>
@@ -5967,11 +5984,11 @@
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
-      <c r="N46" s="159"/>
-      <c r="O46" s="146"/>
-      <c r="P46" s="146"/>
-      <c r="Q46" s="159"/>
-      <c r="R46" s="159"/>
+      <c r="N46" s="171"/>
+      <c r="O46" s="158"/>
+      <c r="P46" s="158"/>
+      <c r="Q46" s="171"/>
+      <c r="R46" s="171"/>
       <c r="S46" s="90"/>
       <c r="T46" s="90"/>
       <c r="U46" s="68"/>
@@ -5984,7 +6001,7 @@
       <c r="AB46" s="68"/>
       <c r="AC46" s="68"/>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29">
       <c r="B47" s="68" t="s">
         <v>119</v>
       </c>
@@ -6013,11 +6030,11 @@
       </c>
       <c r="L47" s="68"/>
       <c r="M47" s="68"/>
-      <c r="N47" s="159"/>
-      <c r="O47" s="146"/>
-      <c r="P47" s="146"/>
-      <c r="Q47" s="159"/>
-      <c r="R47" s="159"/>
+      <c r="N47" s="171"/>
+      <c r="O47" s="158"/>
+      <c r="P47" s="158"/>
+      <c r="Q47" s="171"/>
+      <c r="R47" s="171"/>
       <c r="S47" s="90"/>
       <c r="T47" s="90"/>
       <c r="U47" s="68"/>
@@ -6030,7 +6047,7 @@
       <c r="AB47" s="68"/>
       <c r="AC47" s="68"/>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29">
       <c r="B48" s="68" t="s">
         <v>119</v>
       </c>
@@ -6059,11 +6076,11 @@
       </c>
       <c r="L48" s="68"/>
       <c r="M48" s="68"/>
-      <c r="N48" s="160"/>
-      <c r="O48" s="147"/>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="160"/>
-      <c r="R48" s="160"/>
+      <c r="N48" s="172"/>
+      <c r="O48" s="159"/>
+      <c r="P48" s="159"/>
+      <c r="Q48" s="172"/>
+      <c r="R48" s="172"/>
       <c r="S48" s="91"/>
       <c r="T48" s="91"/>
       <c r="U48" s="68"/>
@@ -6076,7 +6093,7 @@
       <c r="AB48" s="68"/>
       <c r="AC48" s="68"/>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:29">
       <c r="B49" s="68" t="s">
         <v>119</v>
       </c>
@@ -6105,15 +6122,15 @@
       </c>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
-      <c r="N49" s="151" t="s">
+      <c r="N49" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="O49" s="145"/>
-      <c r="P49" s="145"/>
-      <c r="Q49" s="158" t="s">
-        <v>120</v>
-      </c>
-      <c r="R49" s="158" t="s">
+      <c r="O49" s="157"/>
+      <c r="P49" s="157"/>
+      <c r="Q49" s="170" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="170" t="s">
         <v>121</v>
       </c>
       <c r="S49" s="89" t="s">
@@ -6132,7 +6149,7 @@
       <c r="AB49" s="68"/>
       <c r="AC49" s="68"/>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:29">
       <c r="B50" s="68" t="s">
         <v>119</v>
       </c>
@@ -6161,11 +6178,11 @@
       </c>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
-      <c r="N50" s="152"/>
-      <c r="O50" s="146"/>
-      <c r="P50" s="146"/>
-      <c r="Q50" s="159"/>
-      <c r="R50" s="159"/>
+      <c r="N50" s="164"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="158"/>
+      <c r="Q50" s="171"/>
+      <c r="R50" s="171"/>
       <c r="S50" s="90"/>
       <c r="T50" s="90"/>
       <c r="U50" s="68"/>
@@ -6178,7 +6195,7 @@
       <c r="AB50" s="68"/>
       <c r="AC50" s="68"/>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29">
       <c r="B51" s="68" t="s">
         <v>119</v>
       </c>
@@ -6207,11 +6224,11 @@
       </c>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
-      <c r="N51" s="152"/>
-      <c r="O51" s="146"/>
-      <c r="P51" s="146"/>
-      <c r="Q51" s="159"/>
-      <c r="R51" s="159"/>
+      <c r="N51" s="164"/>
+      <c r="O51" s="158"/>
+      <c r="P51" s="158"/>
+      <c r="Q51" s="171"/>
+      <c r="R51" s="171"/>
       <c r="S51" s="90"/>
       <c r="T51" s="90"/>
       <c r="U51" s="68"/>
@@ -6224,7 +6241,7 @@
       <c r="AB51" s="68"/>
       <c r="AC51" s="68"/>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29">
       <c r="B52" s="68" t="s">
         <v>119</v>
       </c>
@@ -6253,11 +6270,11 @@
       </c>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
-      <c r="N52" s="152"/>
-      <c r="O52" s="146"/>
-      <c r="P52" s="146"/>
-      <c r="Q52" s="159"/>
-      <c r="R52" s="159"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="171"/>
+      <c r="R52" s="171"/>
       <c r="S52" s="90"/>
       <c r="T52" s="90"/>
       <c r="U52" s="68"/>
@@ -6270,7 +6287,7 @@
       <c r="AB52" s="68"/>
       <c r="AC52" s="68"/>
     </row>
-    <row r="53" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:29" ht="15" customHeight="1">
       <c r="B53" s="68" t="s">
         <v>119</v>
       </c>
@@ -6299,11 +6316,11 @@
       </c>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
-      <c r="N53" s="152"/>
-      <c r="O53" s="146"/>
-      <c r="P53" s="146"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="159"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="158"/>
+      <c r="P53" s="158"/>
+      <c r="Q53" s="171"/>
+      <c r="R53" s="171"/>
       <c r="S53" s="90"/>
       <c r="T53" s="90"/>
       <c r="U53" s="68"/>
@@ -6316,7 +6333,7 @@
       <c r="AB53" s="68"/>
       <c r="AC53" s="68"/>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:29">
       <c r="B54" s="78"/>
       <c r="C54" s="78"/>
       <c r="D54" s="78"/>
@@ -6337,11 +6354,11 @@
       </c>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
-      <c r="N54" s="152"/>
-      <c r="O54" s="146"/>
-      <c r="P54" s="146"/>
-      <c r="Q54" s="159"/>
-      <c r="R54" s="159"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="158"/>
+      <c r="P54" s="158"/>
+      <c r="Q54" s="171"/>
+      <c r="R54" s="171"/>
       <c r="S54" s="90"/>
       <c r="T54" s="90"/>
       <c r="U54" s="68"/>
@@ -6354,7 +6371,7 @@
       <c r="AB54" s="68"/>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:29">
       <c r="B55" s="68" t="s">
         <v>119</v>
       </c>
@@ -6383,11 +6400,11 @@
       </c>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
-      <c r="N55" s="152"/>
-      <c r="O55" s="146"/>
-      <c r="P55" s="146"/>
-      <c r="Q55" s="159"/>
-      <c r="R55" s="159"/>
+      <c r="N55" s="164"/>
+      <c r="O55" s="158"/>
+      <c r="P55" s="158"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
       <c r="S55" s="90"/>
       <c r="T55" s="90"/>
       <c r="U55" s="68"/>
@@ -6400,7 +6417,7 @@
       <c r="AB55" s="68"/>
       <c r="AC55" s="68"/>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:29">
       <c r="B56" s="68" t="s">
         <v>119</v>
       </c>
@@ -6429,11 +6446,11 @@
       </c>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
-      <c r="N56" s="153"/>
-      <c r="O56" s="147"/>
-      <c r="P56" s="147"/>
-      <c r="Q56" s="160"/>
-      <c r="R56" s="160"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="159"/>
+      <c r="P56" s="159"/>
+      <c r="Q56" s="172"/>
+      <c r="R56" s="172"/>
       <c r="S56" s="91"/>
       <c r="T56" s="91"/>
       <c r="U56" s="68"/>
@@ -6446,7 +6463,7 @@
       <c r="AB56" s="68"/>
       <c r="AC56" s="68"/>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:29">
       <c r="B57" s="100"/>
       <c r="C57" s="100"/>
       <c r="D57" s="101"/>
@@ -6490,7 +6507,7 @@
       <c r="AB57" s="96"/>
       <c r="AC57" s="96"/>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:29">
       <c r="B58" s="100"/>
       <c r="C58" s="100"/>
       <c r="D58" s="101"/>
@@ -6534,7 +6551,7 @@
       <c r="AB58" s="96"/>
       <c r="AC58" s="96"/>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:29">
       <c r="B59" s="100"/>
       <c r="C59" s="100"/>
       <c r="D59" s="101"/>
@@ -6574,7 +6591,7 @@
       <c r="AB59" s="96"/>
       <c r="AC59" s="96"/>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29">
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
       <c r="D60" s="60"/>
@@ -6597,7 +6614,7 @@
       <c r="U60" s="63"/>
       <c r="V60" s="59"/>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:29">
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="60"/>
@@ -6620,7 +6637,7 @@
       <c r="U61" s="63"/>
       <c r="V61" s="59"/>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29">
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
       <c r="D62" s="60"/>
@@ -6643,7 +6660,7 @@
       <c r="U62" s="63"/>
       <c r="V62" s="59"/>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29">
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
       <c r="D63" s="60"/>
@@ -6666,7 +6683,7 @@
       <c r="U63" s="63"/>
       <c r="V63" s="59"/>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29">
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
       <c r="D64" s="60"/>
@@ -6689,7 +6706,7 @@
       <c r="U64" s="63"/>
       <c r="V64" s="59"/>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:22">
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="60"/>
@@ -6712,7 +6729,7 @@
       <c r="U65" s="63"/>
       <c r="V65" s="59"/>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:22">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="60"/>
@@ -6735,7 +6752,7 @@
       <c r="U66" s="63"/>
       <c r="V66" s="59"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22">
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="60"/>
@@ -6758,7 +6775,7 @@
       <c r="U67" s="63"/>
       <c r="V67" s="59"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:22">
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="60"/>
@@ -6781,7 +6798,7 @@
       <c r="U68" s="63"/>
       <c r="V68" s="59"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="60"/>
@@ -6804,7 +6821,7 @@
       <c r="U69" s="63"/>
       <c r="V69" s="59"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -6827,7 +6844,7 @@
       <c r="U70" s="63"/>
       <c r="V70" s="59"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="60"/>
@@ -6850,7 +6867,7 @@
       <c r="U71" s="63"/>
       <c r="V71" s="59"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:22">
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
       <c r="D72" s="60"/>
@@ -6873,7 +6890,7 @@
       <c r="U72" s="63"/>
       <c r="V72" s="59"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="60"/>
@@ -6896,7 +6913,7 @@
       <c r="U73" s="63"/>
       <c r="V73" s="59"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:22">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="60"/>
@@ -6919,7 +6936,7 @@
       <c r="U74" s="63"/>
       <c r="V74" s="59"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:22">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="60"/>
@@ -6942,7 +6959,7 @@
       <c r="U75" s="63"/>
       <c r="V75" s="59"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:22">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -6965,7 +6982,7 @@
       <c r="U76" s="63"/>
       <c r="V76" s="59"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="60"/>
@@ -6988,7 +7005,7 @@
       <c r="U77" s="63"/>
       <c r="V77" s="59"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:22">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="60"/>
@@ -7011,7 +7028,7 @@
       <c r="U78" s="63"/>
       <c r="V78" s="59"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:22">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="60"/>
@@ -7034,7 +7051,7 @@
       <c r="U79" s="63"/>
       <c r="V79" s="59"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="60"/>
@@ -7057,7 +7074,7 @@
       <c r="U80" s="63"/>
       <c r="V80" s="59"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:22">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="60"/>
@@ -7080,7 +7097,7 @@
       <c r="U81" s="63"/>
       <c r="V81" s="59"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:22">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
@@ -7127,7 +7144,2266 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AG49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="N37" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N48" sqref="N48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" style="6" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="54" customWidth="1"/>
+    <col min="15" max="17" width="29.85546875" style="54" customWidth="1"/>
+    <col min="18" max="18" width="40.5703125" style="54" customWidth="1"/>
+    <col min="19" max="19" width="27" style="54" customWidth="1"/>
+    <col min="20" max="20" width="29" style="54" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="2" customWidth="1"/>
+    <col min="26" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29">
+      <c r="D1" s="84"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+    </row>
+    <row r="2" spans="2:29" ht="25.5" customHeight="1">
+      <c r="B2" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="160" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" ht="23.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="41"/>
+    </row>
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="68">
+        <v>10</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="67"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y4" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+    </row>
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="68">
+        <v>10</v>
+      </c>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="67"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y5" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+    </row>
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="68">
+        <v>2</v>
+      </c>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T6" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="67"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="68">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+    </row>
+    <row r="7" spans="2:29" s="15" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S7" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" s="67"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+    </row>
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="67"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+    </row>
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="68">
+        <v>4</v>
+      </c>
+      <c r="L9" s="70"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" s="67"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+    </row>
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="68">
+        <v>1</v>
+      </c>
+      <c r="L10" s="70"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S10" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="67"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y10" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+    </row>
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="68">
+        <v>4</v>
+      </c>
+      <c r="L11" s="70"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="67"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" s="68">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+    </row>
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="68">
+        <v>8</v>
+      </c>
+      <c r="L12" s="70"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="67"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" s="68">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+    </row>
+    <row r="13" spans="2:29" s="15" customFormat="1" ht="12">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="70">
+        <v>12</v>
+      </c>
+      <c r="L13" s="70">
+        <v>2</v>
+      </c>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T13" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13" s="67"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" s="70">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="70">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+    </row>
+    <row r="14" spans="2:29" s="15" customFormat="1" ht="12">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="68">
+        <v>6</v>
+      </c>
+      <c r="L14" s="68">
+        <v>2</v>
+      </c>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" s="67"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+    </row>
+    <row r="15" spans="2:29" s="15" customFormat="1" ht="12">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="68">
+        <v>6</v>
+      </c>
+      <c r="L15" s="70">
+        <v>2</v>
+      </c>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" s="67"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="70">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+    </row>
+    <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="68">
+        <v>1</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="68"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y16" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+    </row>
+    <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="3">
+        <v>60</v>
+      </c>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T17" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="U17" s="68"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+    </row>
+    <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="68">
+        <v>11</v>
+      </c>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T18" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18" s="68"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y18" s="68">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+    </row>
+    <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="68">
+        <v>8</v>
+      </c>
+      <c r="L19" s="68">
+        <v>2</v>
+      </c>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T19" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="68"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y19" s="68">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="68">
+        <v>5</v>
+      </c>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T20" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="U20" s="68"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y20" s="68">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="68">
+        <v>10</v>
+      </c>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T21" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="U21" s="68"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y21" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="68">
+        <v>2</v>
+      </c>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S22" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T22" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="U22" s="68"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22" s="68">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="68">
+        <v>15</v>
+      </c>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T23" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="U23" s="68"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y23" s="68">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="68">
+        <v>2</v>
+      </c>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S24" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T24" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="68"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y24" s="68">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+    </row>
+    <row r="25" spans="2:29" ht="14.25" customHeight="1">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="68">
+        <v>5</v>
+      </c>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R25" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T25" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="U25" s="68"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y25" s="68">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+    </row>
+    <row r="26" spans="2:29" ht="12" customHeight="1">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="68">
+        <v>11</v>
+      </c>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R26" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S26" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T26" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="U26" s="68"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26" s="68">
+        <v>11</v>
+      </c>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="68">
+        <v>3</v>
+      </c>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S27" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T27" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="U27" s="68"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y27" s="68">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="68"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="68">
+        <v>5</v>
+      </c>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S28" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T28" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="U28" s="68"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y28" s="68">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="68"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="68">
+        <v>1</v>
+      </c>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S29" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T29" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="U29" s="68"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y29" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="68">
+        <v>3</v>
+      </c>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S30" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T30" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="U30" s="68"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y30" s="68">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="71"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="68">
+        <v>6</v>
+      </c>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R31" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S31" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T31" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U31" s="68"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y31" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="68"/>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="71"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="68">
+        <v>1</v>
+      </c>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R32" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S32" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T32" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="U32" s="68"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y32" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="68">
+        <v>1</v>
+      </c>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S33" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T33" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="U33" s="68"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y33" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="68">
+        <v>1</v>
+      </c>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R34" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S34" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T34" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="U34" s="68"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y34" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R35" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S35" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T35" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="U35" s="68"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="X35" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="73"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="68">
+        <v>12</v>
+      </c>
+      <c r="L36" s="68">
+        <v>2</v>
+      </c>
+      <c r="M36" s="68"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="T36" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="U36" s="68"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y36" s="68">
+        <v>12</v>
+      </c>
+      <c r="Z36" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="72"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="68">
+        <v>6</v>
+      </c>
+      <c r="L37" s="68">
+        <v>2</v>
+      </c>
+      <c r="M37" s="68"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S37" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T37" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="U37" s="68"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y37" s="68">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+    </row>
+    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="71"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" s="68">
+        <v>1</v>
+      </c>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="S38" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="T38" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="U38" s="68"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y38" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+    </row>
+    <row r="39" spans="1:33" s="3" customFormat="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="71"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" s="68">
+        <v>3</v>
+      </c>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="R39" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="S39" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="T39" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="U39" s="68"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y39" s="68">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AG39" s="2"/>
+    </row>
+    <row r="40" spans="1:33" s="3" customFormat="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="96">
+        <v>2</v>
+      </c>
+      <c r="L40" s="96"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="R40" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S40" s="105"/>
+      <c r="T40" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="U40" s="105"/>
+      <c r="V40" s="106"/>
+      <c r="W40" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="X40" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y40" s="96">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="96"/>
+      <c r="AA40" s="96"/>
+      <c r="AB40" s="96"/>
+      <c r="AC40" s="96"/>
+      <c r="AG40" s="2"/>
+    </row>
+    <row r="41" spans="1:33" s="3" customFormat="1" ht="24">
+      <c r="A41" s="2"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="96">
+        <v>2</v>
+      </c>
+      <c r="L41" s="96"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="O41" s="116"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="R41" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S41" s="105"/>
+      <c r="T41" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="U41" s="105"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="X41" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y41" s="96">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="96"/>
+      <c r="AA41" s="96"/>
+      <c r="AB41" s="96"/>
+      <c r="AC41" s="96"/>
+      <c r="AG41" s="2"/>
+    </row>
+    <row r="42" spans="1:33" s="3" customFormat="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="R42" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S42" s="105"/>
+      <c r="T42" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="U42" s="105"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="X42" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y42" s="96"/>
+      <c r="Z42" s="96"/>
+      <c r="AA42" s="96"/>
+      <c r="AB42" s="96"/>
+      <c r="AC42" s="96"/>
+      <c r="AG42" s="2"/>
+    </row>
+    <row r="43" spans="1:33" ht="84">
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="U43" s="105"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="96"/>
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="96"/>
+      <c r="AC43" s="96"/>
+    </row>
+    <row r="44" spans="1:33">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="59"/>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="59"/>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="59"/>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="59"/>
+    </row>
+    <row r="48" spans="1:33">
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="59"/>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7135,7 +9411,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -7143,7 +9419,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -7163,7 +9439,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -7183,7 +9459,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -7208,7 +9484,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -7230,7 +9506,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -7238,7 +9514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -7246,7 +9522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -7254,7 +9530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -7262,7 +9538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -7270,7 +9546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -7278,7 +9554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -7286,7 +9562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -7294,7 +9570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -7302,7 +9578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -7310,7 +9586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -7318,7 +9594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -7326,7 +9602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -7334,7 +9610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -7342,7 +9618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -7350,7 +9626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -7358,7 +9634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -7366,7 +9642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -7385,15 +9661,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -7442,25 +9719,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7475,25 +9766,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL_P1.xlsx
+++ b/Mapeamento P1/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL_P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="738" activeTab="4"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="738" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="152">
   <si>
     <t>Schema</t>
   </si>
@@ -1100,9 +1100,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Se IND_AUTORIZACAO = 3 and IND_FIXO_VARIAVEL = 'V' and IND_TIPO_SALARIO in ('H','M') entao campo = 2</t>
-  </si>
-  <si>
     <t>IND_DESTINO</t>
   </si>
   <si>
@@ -1116,6 +1113,12 @@
   </si>
   <si>
     <t>CONSOLIDACAO_HORISTA</t>
+  </si>
+  <si>
+    <t>IF IND_AUTORIZACAO = 3 
+ELSIF IND_FIXO_VARIAVEL = 'V' 
+ELSIF IND_TIPO_SALARIO in ('H','M') 
+THEN IND_APTO_PAGAMENTO = 2</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1966,169 +1969,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2148,6 +1989,171 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2317,7 +2323,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2340,14 +2346,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2390,7 +2396,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2413,14 +2419,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2447,14 +2453,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15365" name="Picture 5"/>
+        <xdr:cNvPr id="18433" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2469,16 +2475,14 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="495300" y="323850"/>
-          <a:ext cx="17325975" cy="6524625"/>
+          <a:ext cx="18707100" cy="7572375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:miter lim="800000"/>
           <a:headEnd/>
           <a:tailEnd type="none" w="med" len="med"/>
@@ -2804,10 +2808,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="111"/>
+      <c r="D2" s="123"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="16" t="s">
@@ -2845,28 +2849,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="43" t="s">
@@ -2875,17 +2879,17 @@
       <c r="C11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124" t="s">
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="29" t="s">
@@ -2894,84 +2898,92 @@
       <c r="C12" s="28">
         <v>41236</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="119"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2982,14 +2994,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3047,17 +3051,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="50" t="s">
@@ -3066,119 +3070,119 @@
       <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="90" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="90" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="90" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="90" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="90" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="90" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="90" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
@@ -3192,17 +3196,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="46" t="s">
@@ -3214,29 +3218,29 @@
       <c r="D18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="142" t="s">
+      <c r="F18" s="142"/>
+      <c r="G18" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="142"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
@@ -3250,11 +3254,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="45" t="s">
@@ -3269,13 +3273,13 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="88"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:10" ht="25.5">
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="110" t="s">
         <v>140</v>
       </c>
       <c r="C24" s="88" t="s">
@@ -3295,17 +3299,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="50" t="s">
@@ -3317,63 +3321,52 @@
       <c r="D27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="147" t="s">
+      <c r="E27" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147" t="s">
+      <c r="F27" s="145"/>
+      <c r="G27" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D9:J9"/>
@@ -3388,6 +3381,17 @@
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3401,7 +3405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="H12" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3420,8 +3426,8 @@
   </sheetPr>
   <dimension ref="B1:AF82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -3441,11 +3447,12 @@
     <col min="11" max="12" width="11.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="50.7109375" style="53" customWidth="1"/>
-    <col min="15" max="17" width="29.85546875" style="53" customWidth="1"/>
-    <col min="18" max="18" width="40.5703125" style="53" customWidth="1"/>
-    <col min="19" max="19" width="27" style="53" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" style="53" customWidth="1"/>
+    <col min="18" max="19" width="23.42578125" style="53" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" style="53" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.85546875" style="2" customWidth="1"/>
     <col min="24" max="24" width="13.28515625" style="2" customWidth="1"/>
@@ -3468,39 +3475,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="2:29" ht="25.5" customHeight="1">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="159" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="151" t="s">
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="153"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -3627,10 +3634,10 @@
         <v>120</v>
       </c>
       <c r="R4" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T4" s="67" t="s">
         <v>76</v>
@@ -3687,10 +3694,10 @@
         <v>120</v>
       </c>
       <c r="R5" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T5" s="67" t="s">
         <v>77</v>
@@ -3747,10 +3754,10 @@
         <v>120</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T6" s="67" t="s">
         <v>78</v>
@@ -3805,10 +3812,10 @@
         <v>120</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T7" s="67" t="s">
         <v>79</v>
@@ -3861,10 +3868,10 @@
         <v>120</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S8" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T8" s="67" t="s">
         <v>80</v>
@@ -3919,10 +3926,10 @@
         <v>120</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S9" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T9" s="67" t="s">
         <v>81</v>
@@ -3979,10 +3986,10 @@
         <v>120</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S10" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T10" s="67" t="s">
         <v>82</v>
@@ -4039,10 +4046,10 @@
         <v>120</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T11" s="67" t="s">
         <v>83</v>
@@ -4099,10 +4106,10 @@
         <v>120</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S12" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T12" s="67" t="s">
         <v>84</v>
@@ -4161,10 +4168,10 @@
         <v>120</v>
       </c>
       <c r="R13" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S13" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T13" s="67" t="s">
         <v>85</v>
@@ -4225,10 +4232,10 @@
         <v>120</v>
       </c>
       <c r="R14" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S14" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T14" s="67" t="s">
         <v>86</v>
@@ -4289,10 +4296,10 @@
         <v>120</v>
       </c>
       <c r="R15" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T15" s="67" t="s">
         <v>87</v>
@@ -4351,10 +4358,10 @@
         <v>120</v>
       </c>
       <c r="R16" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S16" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T16" s="67" t="s">
         <v>88</v>
@@ -4411,10 +4418,10 @@
         <v>120</v>
       </c>
       <c r="R17" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S17" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T17" s="67" t="s">
         <v>89</v>
@@ -4471,10 +4478,10 @@
         <v>120</v>
       </c>
       <c r="R18" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S18" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T18" s="67" t="s">
         <v>90</v>
@@ -4533,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="R19" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S19" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T19" s="67" t="s">
         <v>91</v>
@@ -4595,10 +4602,10 @@
         <v>120</v>
       </c>
       <c r="R20" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S20" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T20" s="67" t="s">
         <v>92</v>
@@ -4655,10 +4662,10 @@
         <v>120</v>
       </c>
       <c r="R21" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S21" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T21" s="67" t="s">
         <v>93</v>
@@ -4715,10 +4722,10 @@
         <v>120</v>
       </c>
       <c r="R22" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S22" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T22" s="67" t="s">
         <v>94</v>
@@ -4775,10 +4782,10 @@
         <v>120</v>
       </c>
       <c r="R23" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S23" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T23" s="67" t="s">
         <v>95</v>
@@ -4835,10 +4842,10 @@
         <v>120</v>
       </c>
       <c r="R24" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S24" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T24" s="67" t="s">
         <v>96</v>
@@ -4895,10 +4902,10 @@
         <v>120</v>
       </c>
       <c r="R25" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S25" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T25" s="67" t="s">
         <v>97</v>
@@ -4955,10 +4962,10 @@
         <v>120</v>
       </c>
       <c r="R26" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S26" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T26" s="67" t="s">
         <v>98</v>
@@ -5015,10 +5022,10 @@
         <v>120</v>
       </c>
       <c r="R27" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S27" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T27" s="67" t="s">
         <v>99</v>
@@ -5075,10 +5082,10 @@
         <v>120</v>
       </c>
       <c r="R28" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S28" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T28" s="67" t="s">
         <v>100</v>
@@ -5135,10 +5142,10 @@
         <v>120</v>
       </c>
       <c r="R29" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S29" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T29" s="67" t="s">
         <v>101</v>
@@ -5195,10 +5202,10 @@
         <v>120</v>
       </c>
       <c r="R30" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S30" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T30" s="67" t="s">
         <v>102</v>
@@ -5255,10 +5262,10 @@
         <v>120</v>
       </c>
       <c r="R31" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S31" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T31" s="67" t="s">
         <v>103</v>
@@ -5315,10 +5322,10 @@
         <v>120</v>
       </c>
       <c r="R32" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S32" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T32" s="81" t="s">
         <v>116</v>
@@ -5375,10 +5382,10 @@
         <v>120</v>
       </c>
       <c r="R33" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S33" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T33" s="67" t="s">
         <v>105</v>
@@ -5435,10 +5442,10 @@
         <v>120</v>
       </c>
       <c r="R34" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S34" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T34" s="67" t="s">
         <v>106</v>
@@ -5458,11 +5465,11 @@
       <c r="AC34" s="67"/>
     </row>
     <row r="35" spans="2:29">
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="166"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="112"/>
       <c r="G35" s="67" t="s">
         <v>107</v>
       </c>
@@ -5485,10 +5492,10 @@
         <v>120</v>
       </c>
       <c r="R35" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S35" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T35" s="67" t="s">
         <v>107</v>
@@ -5540,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="M36" s="67"/>
-      <c r="N36" s="110" t="s">
+      <c r="N36" s="109" t="s">
         <v>130</v>
       </c>
       <c r="O36" s="80"/>
@@ -5549,10 +5556,10 @@
         <v>120</v>
       </c>
       <c r="R36" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="S36" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="S36" s="170" t="s">
+        <v>150</v>
       </c>
       <c r="T36" s="82" t="s">
         <v>108</v>
@@ -5574,11 +5581,11 @@
       <c r="AC36" s="67"/>
     </row>
     <row r="37" spans="2:29">
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="170"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="116"/>
       <c r="G37" s="71" t="s">
         <v>118</v>
       </c>
@@ -5603,10 +5610,10 @@
         <v>120</v>
       </c>
       <c r="R37" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S37" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T37" s="71" t="s">
         <v>118</v>
@@ -5656,39 +5663,43 @@
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="161" t="s">
+      <c r="N38" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="O38" s="148"/>
-      <c r="P38" s="148"/>
-      <c r="Q38" s="161" t="s">
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="163" t="s">
         <v>120</v>
       </c>
       <c r="R38" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="S38" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="T38" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S38" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="T38" s="163" t="s">
         <v>109</v>
       </c>
       <c r="U38" s="154"/>
       <c r="V38" s="154"/>
       <c r="W38" s="154"/>
-      <c r="X38" s="154"/>
-      <c r="Y38" s="154"/>
+      <c r="X38" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y38" s="154">
+        <v>30</v>
+      </c>
       <c r="Z38" s="154"/>
       <c r="AA38" s="154"/>
       <c r="AB38" s="154"/>
       <c r="AC38" s="154"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="78" t="s">
         <v>125</v>
       </c>
@@ -5698,17 +5709,17 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="149"/>
-      <c r="P39" s="149"/>
-      <c r="Q39" s="162"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="158"/>
+      <c r="P39" s="158"/>
+      <c r="Q39" s="164"/>
       <c r="R39" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S39" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T39" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S39" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T39" s="164"/>
       <c r="U39" s="155"/>
       <c r="V39" s="155"/>
       <c r="W39" s="155"/>
@@ -5720,11 +5731,11 @@
       <c r="AC39" s="155"/>
     </row>
     <row r="40" spans="2:29">
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
       <c r="G40" s="70" t="s">
         <v>126</v>
       </c>
@@ -5734,17 +5745,17 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="149"/>
-      <c r="P40" s="149"/>
-      <c r="Q40" s="162"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="158"/>
+      <c r="P40" s="158"/>
+      <c r="Q40" s="164"/>
       <c r="R40" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S40" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T40" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S40" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T40" s="164"/>
       <c r="U40" s="155"/>
       <c r="V40" s="155"/>
       <c r="W40" s="155"/>
@@ -5784,17 +5795,17 @@
       </c>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="149"/>
-      <c r="P41" s="149"/>
-      <c r="Q41" s="162"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="158"/>
+      <c r="P41" s="158"/>
+      <c r="Q41" s="164"/>
       <c r="R41" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S41" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T41" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S41" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T41" s="164"/>
       <c r="U41" s="155"/>
       <c r="V41" s="155"/>
       <c r="W41" s="155"/>
@@ -5834,17 +5845,17 @@
       </c>
       <c r="L42" s="67"/>
       <c r="M42" s="67"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="149"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="162"/>
+      <c r="N42" s="164"/>
+      <c r="O42" s="158"/>
+      <c r="P42" s="158"/>
+      <c r="Q42" s="164"/>
       <c r="R42" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S42" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T42" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S42" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T42" s="164"/>
       <c r="U42" s="155"/>
       <c r="V42" s="155"/>
       <c r="W42" s="155"/>
@@ -5884,17 +5895,17 @@
       </c>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="149"/>
-      <c r="P43" s="149"/>
-      <c r="Q43" s="162"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="158"/>
+      <c r="P43" s="158"/>
+      <c r="Q43" s="164"/>
       <c r="R43" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S43" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T43" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S43" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T43" s="164"/>
       <c r="U43" s="155"/>
       <c r="V43" s="155"/>
       <c r="W43" s="155"/>
@@ -5934,17 +5945,17 @@
       </c>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
-      <c r="N44" s="162"/>
-      <c r="O44" s="149"/>
-      <c r="P44" s="149"/>
-      <c r="Q44" s="162"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="158"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="164"/>
       <c r="R44" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S44" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T44" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S44" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T44" s="164"/>
       <c r="U44" s="155"/>
       <c r="V44" s="155"/>
       <c r="W44" s="155"/>
@@ -5984,17 +5995,17 @@
       </c>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="149"/>
-      <c r="P45" s="149"/>
-      <c r="Q45" s="162"/>
+      <c r="N45" s="164"/>
+      <c r="O45" s="158"/>
+      <c r="P45" s="158"/>
+      <c r="Q45" s="164"/>
       <c r="R45" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S45" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T45" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S45" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T45" s="164"/>
       <c r="U45" s="155"/>
       <c r="V45" s="155"/>
       <c r="W45" s="155"/>
@@ -6034,17 +6045,17 @@
       </c>
       <c r="L46" s="67"/>
       <c r="M46" s="67"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="149"/>
-      <c r="P46" s="149"/>
-      <c r="Q46" s="162"/>
+      <c r="N46" s="164"/>
+      <c r="O46" s="158"/>
+      <c r="P46" s="158"/>
+      <c r="Q46" s="164"/>
       <c r="R46" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S46" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T46" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S46" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T46" s="164"/>
       <c r="U46" s="155"/>
       <c r="V46" s="155"/>
       <c r="W46" s="155"/>
@@ -6084,17 +6095,17 @@
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67"/>
-      <c r="N47" s="162"/>
-      <c r="O47" s="149"/>
-      <c r="P47" s="149"/>
-      <c r="Q47" s="162"/>
+      <c r="N47" s="164"/>
+      <c r="O47" s="158"/>
+      <c r="P47" s="158"/>
+      <c r="Q47" s="164"/>
       <c r="R47" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S47" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T47" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S47" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T47" s="164"/>
       <c r="U47" s="155"/>
       <c r="V47" s="155"/>
       <c r="W47" s="155"/>
@@ -6134,17 +6145,17 @@
       </c>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
-      <c r="N48" s="163"/>
-      <c r="O48" s="150"/>
-      <c r="P48" s="150"/>
-      <c r="Q48" s="163"/>
+      <c r="N48" s="165"/>
+      <c r="O48" s="159"/>
+      <c r="P48" s="159"/>
+      <c r="Q48" s="165"/>
       <c r="R48" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="S48" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="T48" s="156"/>
+        <v>150</v>
+      </c>
+      <c r="S48" s="165" t="s">
+        <v>150</v>
+      </c>
+      <c r="T48" s="165"/>
       <c r="U48" s="156"/>
       <c r="V48" s="156"/>
       <c r="W48" s="156"/>
@@ -6184,28 +6195,32 @@
       </c>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
-      <c r="N49" s="161" t="s">
+      <c r="N49" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="O49" s="148"/>
-      <c r="P49" s="148"/>
-      <c r="Q49" s="161" t="s">
+      <c r="O49" s="157"/>
+      <c r="P49" s="157"/>
+      <c r="Q49" s="163" t="s">
         <v>120</v>
       </c>
       <c r="R49" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="S49" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="T49" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="S49" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="T49" s="163" t="s">
         <v>110</v>
       </c>
       <c r="U49" s="154"/>
       <c r="V49" s="154"/>
       <c r="W49" s="154"/>
-      <c r="X49" s="154"/>
-      <c r="Y49" s="154"/>
+      <c r="X49" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y49" s="154">
+        <v>15</v>
+      </c>
       <c r="Z49" s="154"/>
       <c r="AA49" s="154"/>
       <c r="AB49" s="154"/>
@@ -6240,17 +6255,17 @@
       </c>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
-      <c r="N50" s="162"/>
-      <c r="O50" s="149"/>
-      <c r="P50" s="149"/>
-      <c r="Q50" s="162"/>
+      <c r="N50" s="164"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="158"/>
+      <c r="Q50" s="164"/>
       <c r="R50" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S50" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T50" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S50" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T50" s="164"/>
       <c r="U50" s="155"/>
       <c r="V50" s="155"/>
       <c r="W50" s="155"/>
@@ -6290,17 +6305,17 @@
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="149"/>
-      <c r="P51" s="149"/>
-      <c r="Q51" s="162"/>
+      <c r="N51" s="164"/>
+      <c r="O51" s="158"/>
+      <c r="P51" s="158"/>
+      <c r="Q51" s="164"/>
       <c r="R51" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S51" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T51" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S51" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T51" s="164"/>
       <c r="U51" s="155"/>
       <c r="V51" s="155"/>
       <c r="W51" s="155"/>
@@ -6340,17 +6355,17 @@
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
-      <c r="N52" s="162"/>
-      <c r="O52" s="149"/>
-      <c r="P52" s="149"/>
-      <c r="Q52" s="162"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="164"/>
       <c r="R52" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S52" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T52" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S52" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T52" s="164"/>
       <c r="U52" s="155"/>
       <c r="V52" s="155"/>
       <c r="W52" s="155"/>
@@ -6390,17 +6405,17 @@
       </c>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="149"/>
-      <c r="P53" s="149"/>
-      <c r="Q53" s="162"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="158"/>
+      <c r="P53" s="158"/>
+      <c r="Q53" s="164"/>
       <c r="R53" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S53" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T53" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S53" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T53" s="164"/>
       <c r="U53" s="155"/>
       <c r="V53" s="155"/>
       <c r="W53" s="155"/>
@@ -6412,10 +6427,10 @@
       <c r="AC53" s="155"/>
     </row>
     <row r="54" spans="2:29">
-      <c r="B54" s="168"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="167"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="113"/>
       <c r="F54" s="70" t="s">
         <v>107</v>
       </c>
@@ -6432,17 +6447,17 @@
       </c>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
-      <c r="N54" s="162"/>
-      <c r="O54" s="149"/>
-      <c r="P54" s="149"/>
-      <c r="Q54" s="162"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="158"/>
+      <c r="P54" s="158"/>
+      <c r="Q54" s="164"/>
       <c r="R54" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S54" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T54" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S54" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T54" s="164"/>
       <c r="U54" s="155"/>
       <c r="V54" s="155"/>
       <c r="W54" s="155"/>
@@ -6482,17 +6497,17 @@
       </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
-      <c r="N55" s="162"/>
-      <c r="O55" s="149"/>
-      <c r="P55" s="149"/>
-      <c r="Q55" s="162"/>
+      <c r="N55" s="164"/>
+      <c r="O55" s="158"/>
+      <c r="P55" s="158"/>
+      <c r="Q55" s="164"/>
       <c r="R55" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="S55" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="T55" s="155"/>
+        <v>150</v>
+      </c>
+      <c r="S55" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="T55" s="164"/>
       <c r="U55" s="155"/>
       <c r="V55" s="155"/>
       <c r="W55" s="155"/>
@@ -6532,17 +6547,17 @@
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="150"/>
-      <c r="P56" s="150"/>
-      <c r="Q56" s="163"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="159"/>
+      <c r="P56" s="159"/>
+      <c r="Q56" s="165"/>
       <c r="R56" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="S56" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="T56" s="156"/>
+        <v>150</v>
+      </c>
+      <c r="S56" s="165" t="s">
+        <v>150</v>
+      </c>
+      <c r="T56" s="165"/>
       <c r="U56" s="156"/>
       <c r="V56" s="156"/>
       <c r="W56" s="156"/>
@@ -6575,23 +6590,23 @@
         <v>120</v>
       </c>
       <c r="R57" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S57" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T57" s="71" t="s">
         <v>144</v>
       </c>
       <c r="U57" s="96"/>
       <c r="V57" s="97"/>
-      <c r="W57" s="89" t="s">
+      <c r="W57" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="X57" s="89" t="s">
+      <c r="X57" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="Y57" s="87">
+      <c r="Y57" s="67">
         <v>2</v>
       </c>
       <c r="Z57" s="87"/>
@@ -6621,23 +6636,23 @@
         <v>120</v>
       </c>
       <c r="R58" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S58" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T58" s="71" t="s">
         <v>145</v>
       </c>
       <c r="U58" s="96"/>
       <c r="V58" s="97"/>
-      <c r="W58" s="89" t="s">
+      <c r="W58" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="X58" s="89" t="s">
+      <c r="X58" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="Y58" s="87">
+      <c r="Y58" s="67">
         <v>2</v>
       </c>
       <c r="Z58" s="87"/>
@@ -6665,23 +6680,23 @@
         <v>120</v>
       </c>
       <c r="R59" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S59" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T59" s="71" t="s">
         <v>146</v>
       </c>
       <c r="U59" s="96"/>
       <c r="V59" s="97"/>
-      <c r="W59" s="89" t="s">
+      <c r="W59" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="X59" s="89" t="s">
+      <c r="X59" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="Y59" s="87"/>
+      <c r="Y59" s="67"/>
       <c r="Z59" s="87"/>
       <c r="AA59" s="87"/>
       <c r="AB59" s="87"/>
@@ -7218,25 +7233,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Y49:Y56"/>
-    <mergeCell ref="Z49:Z56"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AB49:AB56"/>
-    <mergeCell ref="AC49:AC56"/>
-    <mergeCell ref="Y38:Y48"/>
-    <mergeCell ref="Z38:Z48"/>
-    <mergeCell ref="AA38:AA48"/>
-    <mergeCell ref="AB38:AB48"/>
-    <mergeCell ref="AC38:AC48"/>
-    <mergeCell ref="T49:T56"/>
-    <mergeCell ref="U38:U48"/>
-    <mergeCell ref="V38:V48"/>
-    <mergeCell ref="W38:W48"/>
-    <mergeCell ref="X38:X48"/>
-    <mergeCell ref="U49:U56"/>
-    <mergeCell ref="V49:V56"/>
-    <mergeCell ref="W49:W56"/>
-    <mergeCell ref="X49:X56"/>
     <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="N49:N56"/>
@@ -7253,6 +7249,25 @@
     <mergeCell ref="T38:T48"/>
     <mergeCell ref="S38:S48"/>
     <mergeCell ref="S49:S56"/>
+    <mergeCell ref="T49:T56"/>
+    <mergeCell ref="U38:U48"/>
+    <mergeCell ref="V38:V48"/>
+    <mergeCell ref="W38:W48"/>
+    <mergeCell ref="X38:X48"/>
+    <mergeCell ref="U49:U56"/>
+    <mergeCell ref="V49:V56"/>
+    <mergeCell ref="W49:W56"/>
+    <mergeCell ref="X49:X56"/>
+    <mergeCell ref="Y38:Y48"/>
+    <mergeCell ref="Z38:Z48"/>
+    <mergeCell ref="AA38:AA48"/>
+    <mergeCell ref="AB38:AB48"/>
+    <mergeCell ref="AC38:AC48"/>
+    <mergeCell ref="Y49:Y56"/>
+    <mergeCell ref="Z49:Z56"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AB49:AB56"/>
+    <mergeCell ref="AC49:AC56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7265,9 +7280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
@@ -7283,10 +7296,10 @@
   <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N48" sqref="N48"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -7296,7 +7309,7 @@
     <col min="4" max="4" width="40.5703125" style="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="52" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="11" style="6" customWidth="1"/>
@@ -7330,39 +7343,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="2:29" ht="25.5" customHeight="1">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="159" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="151" t="s">
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="153"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -7452,9 +7465,15 @@
       <c r="AC3" s="40"/>
     </row>
     <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E4" s="66"/>
       <c r="F4" s="67" t="s">
         <v>76</v>
@@ -7500,9 +7519,15 @@
       <c r="AC4" s="67"/>
     </row>
     <row r="5" spans="2:29" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E5" s="66"/>
       <c r="F5" s="67" t="s">
         <v>77</v>
@@ -7548,9 +7573,15 @@
       <c r="AC5" s="67"/>
     </row>
     <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E6" s="66"/>
       <c r="F6" s="67" t="s">
         <v>78</v>
@@ -7596,9 +7627,15 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="2:29" s="14" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="66"/>
+      <c r="B7" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E7" s="66"/>
       <c r="F7" s="67" t="s">
         <v>79</v>
@@ -7640,9 +7677,15 @@
       <c r="AC7" s="67"/>
     </row>
     <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="66"/>
+      <c r="B8" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E8" s="66"/>
       <c r="F8" s="67" t="s">
         <v>80</v>
@@ -7684,9 +7727,15 @@
       <c r="AC8" s="67"/>
     </row>
     <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E9" s="66"/>
       <c r="F9" s="67" t="s">
         <v>81</v>
@@ -7732,9 +7781,15 @@
       <c r="AC9" s="69"/>
     </row>
     <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="71"/>
+      <c r="B10" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E10" s="71"/>
       <c r="F10" s="67" t="s">
         <v>82</v>
@@ -7780,9 +7835,15 @@
       <c r="AC10" s="69"/>
     </row>
     <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E11" s="66"/>
       <c r="F11" s="67" t="s">
         <v>83</v>
@@ -7828,9 +7889,15 @@
       <c r="AC11" s="69"/>
     </row>
     <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="66"/>
+      <c r="B12" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E12" s="66"/>
       <c r="F12" s="67" t="s">
         <v>84</v>
@@ -7876,9 +7943,15 @@
       <c r="AC12" s="69"/>
     </row>
     <row r="13" spans="2:29" s="14" customFormat="1" ht="12">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E13" s="66"/>
       <c r="F13" s="67" t="s">
         <v>85</v>
@@ -7928,9 +8001,15 @@
       <c r="AC13" s="69"/>
     </row>
     <row r="14" spans="2:29" s="14" customFormat="1" ht="12">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="66"/>
+      <c r="B14" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E14" s="66"/>
       <c r="F14" s="67" t="s">
         <v>86</v>
@@ -7980,9 +8059,15 @@
       <c r="AC14" s="69"/>
     </row>
     <row r="15" spans="2:29" s="14" customFormat="1" ht="12">
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="66"/>
+      <c r="B15" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E15" s="66"/>
       <c r="F15" s="67" t="s">
         <v>87</v>
@@ -8032,9 +8117,15 @@
       <c r="AC15" s="69"/>
     </row>
     <row r="16" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="B16" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67" t="s">
         <v>88</v>
@@ -8080,9 +8171,15 @@
       <c r="AC16" s="67"/>
     </row>
     <row r="17" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
+      <c r="B17" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E17" s="67"/>
       <c r="F17" s="67" t="s">
         <v>89</v>
@@ -8128,9 +8225,15 @@
       <c r="AC17" s="67"/>
     </row>
     <row r="18" spans="2:29" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
+      <c r="B18" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E18" s="67"/>
       <c r="F18" s="67" t="s">
         <v>90</v>
@@ -8176,9 +8279,15 @@
       <c r="AC18" s="67"/>
     </row>
     <row r="19" spans="2:29" s="3" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
+      <c r="B19" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E19" s="67"/>
       <c r="F19" s="67" t="s">
         <v>91</v>
@@ -8228,9 +8337,15 @@
       <c r="AC19" s="67"/>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="B20" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E20" s="67"/>
       <c r="F20" s="67" t="s">
         <v>92</v>
@@ -8276,9 +8391,15 @@
       <c r="AC20" s="67"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="B21" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E21" s="67"/>
       <c r="F21" s="67" t="s">
         <v>93</v>
@@ -8324,9 +8445,15 @@
       <c r="AC21" s="67"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="B22" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E22" s="67"/>
       <c r="F22" s="67" t="s">
         <v>94</v>
@@ -8372,9 +8499,15 @@
       <c r="AC22" s="67"/>
     </row>
     <row r="23" spans="2:29">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="B23" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E23" s="67"/>
       <c r="F23" s="67" t="s">
         <v>95</v>
@@ -8420,9 +8553,15 @@
       <c r="AC23" s="67"/>
     </row>
     <row r="24" spans="2:29">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="71"/>
+      <c r="B24" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E24" s="71"/>
       <c r="F24" s="67" t="s">
         <v>96</v>
@@ -8468,9 +8607,15 @@
       <c r="AC24" s="67"/>
     </row>
     <row r="25" spans="2:29" ht="14.25" customHeight="1">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
+      <c r="B25" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E25" s="67"/>
       <c r="F25" s="67" t="s">
         <v>97</v>
@@ -8516,9 +8661,15 @@
       <c r="AC25" s="67"/>
     </row>
     <row r="26" spans="2:29" ht="12" customHeight="1">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
+      <c r="B26" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E26" s="67"/>
       <c r="F26" s="67" t="s">
         <v>98</v>
@@ -8564,9 +8715,15 @@
       <c r="AC26" s="67"/>
     </row>
     <row r="27" spans="2:29">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
+      <c r="B27" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E27" s="67"/>
       <c r="F27" s="67" t="s">
         <v>99</v>
@@ -8612,9 +8769,15 @@
       <c r="AC27" s="67"/>
     </row>
     <row r="28" spans="2:29">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="66"/>
+      <c r="B28" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E28" s="66"/>
       <c r="F28" s="67" t="s">
         <v>100</v>
@@ -8660,9 +8823,15 @@
       <c r="AC28" s="67"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="66"/>
+      <c r="B29" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E29" s="66"/>
       <c r="F29" s="67" t="s">
         <v>101</v>
@@ -8708,9 +8877,15 @@
       <c r="AC29" s="67"/>
     </row>
     <row r="30" spans="2:29">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="66"/>
+      <c r="B30" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E30" s="66"/>
       <c r="F30" s="67" t="s">
         <v>102</v>
@@ -8756,9 +8931,15 @@
       <c r="AC30" s="67"/>
     </row>
     <row r="31" spans="2:29">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="66"/>
+      <c r="B31" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E31" s="66"/>
       <c r="F31" s="67" t="s">
         <v>103</v>
@@ -8804,9 +8985,15 @@
       <c r="AC31" s="67"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E32" s="67"/>
       <c r="F32" s="81" t="s">
         <v>116</v>
@@ -8852,9 +9039,15 @@
       <c r="AC32" s="67"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
+      <c r="B33" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E33" s="67"/>
       <c r="F33" s="67" t="s">
         <v>105</v>
@@ -8900,9 +9093,15 @@
       <c r="AC33" s="67"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
+      <c r="B34" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E34" s="67"/>
       <c r="F34" s="67" t="s">
         <v>106</v>
@@ -8948,9 +9147,15 @@
       <c r="AC34" s="67"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="70"/>
+      <c r="B35" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E35" s="68"/>
       <c r="F35" s="67" t="s">
         <v>107</v>
@@ -8998,9 +9203,15 @@
       <c r="AC35" s="67"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="71"/>
+      <c r="B36" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E36" s="71"/>
       <c r="F36" s="67" t="s">
         <v>108</v>
@@ -9050,9 +9261,15 @@
       <c r="AC36" s="67"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="71"/>
+      <c r="B37" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E37" s="68"/>
       <c r="F37" s="67" t="s">
         <v>118</v>
@@ -9102,9 +9319,15 @@
       <c r="AC37" s="67"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="B38" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E38" s="68"/>
       <c r="F38" s="67" t="s">
         <v>109</v>
@@ -9151,9 +9374,15 @@
     </row>
     <row r="39" spans="1:33" s="3" customFormat="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
+      <c r="B39" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E39" s="68"/>
       <c r="F39" s="67" t="s">
         <v>110</v>
@@ -9201,9 +9430,15 @@
     </row>
     <row r="40" spans="1:33" s="3" customFormat="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="101"/>
+      <c r="B40" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E40" s="101"/>
       <c r="F40" s="67" t="s">
         <v>144</v>
@@ -9249,13 +9484,19 @@
       <c r="AC40" s="87"/>
       <c r="AG40" s="2"/>
     </row>
-    <row r="41" spans="1:33" s="3" customFormat="1" ht="24">
+    <row r="41" spans="1:33" s="3" customFormat="1" ht="48">
       <c r="A41" s="2"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="101"/>
+      <c r="B41" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="171" t="s">
+        <v>150</v>
+      </c>
       <c r="E41" s="101"/>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="71" t="s">
         <v>145</v>
       </c>
       <c r="G41" s="97"/>
@@ -9270,7 +9511,7 @@
       <c r="L41" s="87"/>
       <c r="M41" s="97"/>
       <c r="N41" s="67" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O41" s="106"/>
       <c r="P41" s="96"/>
@@ -9303,9 +9544,15 @@
     </row>
     <row r="42" spans="1:33" s="3" customFormat="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="101"/>
+      <c r="B42" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>150</v>
+      </c>
       <c r="E42" s="101"/>
       <c r="F42" s="67" t="s">
         <v>146</v>
@@ -9348,22 +9595,32 @@
       <c r="AG42" s="2"/>
     </row>
     <row r="43" spans="1:33" ht="84">
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="101"/>
+      <c r="B43" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="171" t="s">
+        <v>150</v>
+      </c>
       <c r="E43" s="101"/>
-      <c r="F43" s="109" t="s">
+      <c r="F43" s="71" t="s">
         <v>90</v>
       </c>
       <c r="G43" s="97"/>
       <c r="H43" s="97"/>
       <c r="I43" s="97"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
+      <c r="J43" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="87">
+        <v>1</v>
+      </c>
       <c r="L43" s="87"/>
       <c r="M43" s="97"/>
       <c r="N43" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O43" s="96"/>
       <c r="P43" s="96"/>
@@ -9371,7 +9628,7 @@
       <c r="R43" s="96"/>
       <c r="S43" s="96"/>
       <c r="T43" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U43" s="96"/>
       <c r="V43" s="97"/>
@@ -9793,6 +10050,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -9841,17 +10102,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9860,7 +10111,21 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9875,15 +10140,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -9896,12 +10161,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>